--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.546</v>
+        <v>-0.126</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.818</v>
+        <v>26.54</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.45</v>
+        <v>-0.263</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.1</v>
+        <v>33.497</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.721</v>
+        <v>-0.035</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.569</v>
+        <v>26.158</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12.11962745703234</v>
+        <v>25.43001206797932</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>19.6170923046075</v>
+        <v>25.43001209559693</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.70647217776281</v>
+        <v>25.43001210601557</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.455430933056268</v>
+        <v>25.43001206708614</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.49994822193094</v>
+        <v>25.43001209995811</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.4975041379229</v>
+        <v>25.43001211056292</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.578308707331588</v>
+        <v>25.43001207193805</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35.37428825277552</v>
+        <v>25.4300121068285</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>40.13845077497975</v>
+        <v>25.43001211666803</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32.65041697566041</v>
+        <v>25.43001211863204</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.14690383109038</v>
+        <v>25.43001213072408</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.74091310069627</v>
+        <v>25.43001213466859</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.96945372960094</v>
+        <v>25.43001209141405</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.88326169318665</v>
+        <v>25.43001212369429</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>40.01861541677518</v>
+        <v>25.43001213366071</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.81544681660126</v>
+        <v>25.43001209954184</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.97672244272933</v>
+        <v>25.43001213115922</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.7456869301221</v>
+        <v>25.43001214363054</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.000374666906518</v>
+        <v>25.43001209704805</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>19.41111097758484</v>
+        <v>25.43001213220032</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.66419835995907</v>
+        <v>25.43001214574891</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.126407011056915</v>
+        <v>25.43001210459776</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.08546596464245</v>
+        <v>25.43001214317422</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.25210176078057</v>
+        <v>25.43001208080254</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.52124287009873</v>
+        <v>25.43001211021629</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32.24554371674647</v>
+        <v>25.43001212057917</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.50819580849037</v>
+        <v>25.43001208171857</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.85891442138784</v>
+        <v>25.43001211688692</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>38.73913160621838</v>
+        <v>25.43001212757487</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>13.39705926151149</v>
+        <v>25.43001208758345</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>45.0254861601727</v>
+        <v>25.43001212471875</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>49.44741873372199</v>
+        <v>25.43001213449422</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.81658340636353</v>
+        <v>25.43001213628706</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.04631185083429</v>
+        <v>25.43001214850129</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>55.06360928829849</v>
+        <v>25.43001215255292</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23.33836313415316</v>
+        <v>25.4300121069183</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>40.46907990971338</v>
+        <v>25.43001214140081</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.18693354863584</v>
+        <v>25.43001215115218</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>18.22664411261468</v>
+        <v>25.43001211639852</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.6108632205068</v>
+        <v>25.43001215002552</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>41.27926939173518</v>
+        <v>25.43001216256051</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>12.12492950637832</v>
+        <v>25.43001211579951</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31.32536181963675</v>
+        <v>25.43001215349627</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>39.92288334701912</v>
+        <v>25.43001216723501</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>11.39191027638819</v>
+        <v>25.43001212468931</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>41.95585536454546</v>
+        <v>25.43001216579471</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>16.73226792312529</v>
+        <v>25.43001208285748</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.62084705305714</v>
+        <v>25.43001211226966</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>34.53733762304411</v>
+        <v>25.43001212254253</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>11.98982902408119</v>
+        <v>25.43001208436555</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.13669138302942</v>
+        <v>25.43001211952221</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>42.3056714567017</v>
+        <v>25.43001213018872</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>16.06452360699596</v>
+        <v>25.43001209024617</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>48.26941505812878</v>
+        <v>25.43001212734899</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>52.99231361293822</v>
+        <v>25.43001213705808</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>49.2881100027562</v>
+        <v>25.43001213869416</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54.44254103304048</v>
+        <v>25.43001215078</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>58.88266947058077</v>
+        <v>25.43001215484518</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.33506752540507</v>
+        <v>25.43001210913732</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43.63554729092779</v>
+        <v>25.43001214376145</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>55.42822447750947</v>
+        <v>25.43001215343365</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>20.02913401146353</v>
+        <v>25.43001211888852</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.13778958910201</v>
+        <v>25.43001215249044</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>44.07265325085969</v>
+        <v>25.43001216497626</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>15.06392207809545</v>
+        <v>25.43001211885946</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.23777560474476</v>
+        <v>25.43001215654324</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>44.27139989894027</v>
+        <v>25.43001217029878</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>14.63055662560019</v>
+        <v>25.43001212779076</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.99485532287019</v>
+        <v>25.43001216885436</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-2.399109817864912</v>
+        <v>25.43001207390352</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>7.028122837986237</v>
+        <v>25.43001210218029</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>13.89124792822105</v>
+        <v>25.43001211258857</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-10.3080786415266</v>
+        <v>25.43001207489783</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>11.90546253723588</v>
+        <v>25.43001210856521</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>17.77813468658183</v>
+        <v>25.43001211940063</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-7.323106043428996</v>
+        <v>25.4300120799779</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>23.36056953367762</v>
+        <v>25.43001211561807</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>27.86988650046882</v>
+        <v>25.43001212552849</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.4868159250338</v>
+        <v>25.43001212703495</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.86365272605495</v>
+        <v>25.43001213905696</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33.79605552071552</v>
+        <v>25.43001214311488</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>3.608795920497241</v>
+        <v>25.43001209868521</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>19.01698248991771</v>
+        <v>25.43001213220717</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>31.2349609718263</v>
+        <v>25.43001214216956</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-1.5807861321588</v>
+        <v>25.43001210751245</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>12.78452076106048</v>
+        <v>25.43001213983413</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>20.53456401064253</v>
+        <v>25.43001215246069</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-10.26740648198604</v>
+        <v>25.43001210694193</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>7.466365180482796</v>
+        <v>25.43001214302346</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>16.01410096950352</v>
+        <v>25.43001215694218</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-12.18894280805362</v>
+        <v>25.43001211482414</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>17.05852470411016</v>
+        <v>25.43001215425322</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>38.32576618093867</v>
+        <v>25.43001215565345</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.00947331490486</v>
+        <v>25.43001215265694</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>37.39673714297299</v>
+        <v>25.4300121690079</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>45.10055449298098</v>
+        <v>25.43001217379862</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>9.023007519721741</v>
+        <v>25.43001212162409</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>30.2871110642852</v>
+        <v>25.43001216059235</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>39.25569228930003</v>
+        <v>25.43001217116422</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.94085955511465</v>
+        <v>25.43001213832884</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.9534711086442</v>
+        <v>25.43001217129961</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>39.41329039165674</v>
+        <v>25.43001218391935</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3.67580812800199</v>
+        <v>25.43001213611383</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>24.24040939012558</v>
+        <v>25.43001217317307</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.13315024369953</v>
+        <v>25.43001218656878</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>3.732844228743769</v>
+        <v>25.43001214592364</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.46497178465012</v>
+        <v>25.43001218605583</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>50.66537873206364</v>
+        <v>25.43001219839827</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>46.09986392278545</v>
+        <v>25.43001219316688</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>54.90223292704312</v>
+        <v>25.43001220905681</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>65.35367023785733</v>
+        <v>25.43001221303359</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>11.52463903510846</v>
+        <v>25.43001215950676</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>41.47069419237364</v>
+        <v>25.43001219885482</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>54.01260293444559</v>
+        <v>25.43001220989814</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>51.260117320216</v>
+        <v>25.43001217834075</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>43.17988809545758</v>
+        <v>25.43001217459618</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>51.96837416441726</v>
+        <v>25.43001219100026</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>60.06675548740761</v>
+        <v>25.4300121959004</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.52519388759791</v>
+        <v>25.43001214136173</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>46.73195198870448</v>
+        <v>25.43001218274979</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>54.73904880466761</v>
+        <v>25.43001219317103</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>21.91279727668377</v>
+        <v>25.43001215720403</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>40.55410574798282</v>
+        <v>25.43001219225747</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>50.65909654695746</v>
+        <v>25.43001220485003</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>15.06593811705766</v>
+        <v>25.43001215689347</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>41.04771659087582</v>
+        <v>25.43001219664017</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>49.94045730978867</v>
+        <v>25.4300122101389</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>16.50848723438707</v>
+        <v>25.43001216807869</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>54.45750319516933</v>
+        <v>25.43001221083125</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.2739497856378</v>
+        <v>25.43001222310508</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>66.83280807164886</v>
+        <v>25.43001221708826</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>74.70897682280999</v>
+        <v>25.43001223298371</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>85.59227935487691</v>
+        <v>25.4300122370143</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.68535751888075</v>
+        <v>25.43001218120712</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>63.02161532077108</v>
+        <v>25.43001222294005</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>74.51716516133304</v>
+        <v>25.43001223371287</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>55.69818215531485</v>
+        <v>25.43001218136703</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>46.81568639328873</v>
+        <v>25.43001217732674</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>55.50764066858592</v>
+        <v>25.43001219353647</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>64.04589360858877</v>
+        <v>25.43001219845558</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.0390476211702</v>
+        <v>25.43001214399769</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.52504152944354</v>
+        <v>25.43001218545547</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>58.80884587341446</v>
+        <v>25.4300121958297</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>24.67719830895539</v>
+        <v>25.43001215961888</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>44.0993634682992</v>
+        <v>25.43001219467008</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>54.44075322507559</v>
+        <v>25.43001220718456</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>19.16268941007672</v>
+        <v>25.43001215993099</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>46.19962480933879</v>
+        <v>25.43001219970161</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>55.46980158963184</v>
+        <v>25.43001221317552</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>20.9217202054808</v>
+        <v>25.43001217112209</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>59.74506725857093</v>
+        <v>25.43001221385296</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>73.8618645100032</v>
+        <v>25.43001222605555</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>71.86119021868957</v>
+        <v>25.43001221982521</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>79.60658355399084</v>
+        <v>25.43001223552501</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>90.90044838022587</v>
+        <v>25.43001223956111</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.35543361858416</v>
+        <v>25.43001218380781</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>68.0570648259761</v>
+        <v>25.43001222563992</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>79.80197665361935</v>
+        <v>25.43001223632628</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.4401642084066</v>
+        <v>25.43001216695087</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>19.31246751966895</v>
+        <v>25.43001216285084</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.4496702896218</v>
+        <v>25.43001217904438</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>36.49952394223088</v>
+        <v>25.43001218396842</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-2.724305769843299</v>
+        <v>25.43001213090518</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>22.58403816785126</v>
+        <v>25.4300121711168</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>30.949720597108</v>
+        <v>25.43001218179496</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>0.2078017042482694</v>
+        <v>25.43001214748899</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>17.71049835879553</v>
+        <v>25.43001218126243</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.00035735646817</v>
+        <v>25.43001219398061</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-9.39639151880224</v>
+        <v>25.43001214732052</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>15.00519819884011</v>
+        <v>25.43001218545461</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>23.9252510924768</v>
+        <v>25.43001219913835</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-9.249088287611546</v>
+        <v>25.4300121574518</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>27.25390504364256</v>
+        <v>25.43001219853315</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>41.34826413688938</v>
+        <v>25.43001221100011</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>40.61036647364303</v>
+        <v>25.43001220482888</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>48.91590856602784</v>
+        <v>25.43001222054202</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>59.75132594739509</v>
+        <v>25.43001222462107</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>2.243797240478756</v>
+        <v>25.43001217003768</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36.66309734934585</v>
+        <v>25.4300122107186</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>48.55174507071364</v>
+        <v>25.43001222178336</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.23814582973467</v>
+        <v>25.4300120557715</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>23.32992468958113</v>
+        <v>25.43001208239577</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.044830193025</v>
+        <v>25.43001209225397</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>6.125963338043393</v>
+        <v>25.43001205380031</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.53992358678632</v>
+        <v>25.4300120855129</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.05678753869144</v>
+        <v>25.43001209556033</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>11.60658920447822</v>
+        <v>25.43001205810846</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.00366410450448</v>
+        <v>25.43001209163128</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>42.99317768562161</v>
+        <v>25.4300121009011</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>37.2864739781002</v>
+        <v>25.43001210409594</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>41.91286150077687</v>
+        <v>25.43001211541952</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>45.3349363083954</v>
+        <v>25.43001211928246</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.4005578696115</v>
+        <v>25.43001207793748</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>31.62158507492089</v>
+        <v>25.43001210910125</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>42.58999451183756</v>
+        <v>25.43001211867756</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>12.49986567639202</v>
+        <v>25.43001208824237</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.5588298798356</v>
+        <v>25.43001211887517</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.29770914822897</v>
+        <v>25.43001213082119</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2.479099925951201</v>
+        <v>25.43001208463566</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.47860415166188</v>
+        <v>25.43001211901064</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>27.95097788718574</v>
+        <v>25.43001213191088</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>4.295884526369274</v>
+        <v>25.43001209215307</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>34.05272852775153</v>
+        <v>25.43001212950906</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15.03436616021228</v>
+        <v>25.43001206703183</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.81179889676541</v>
+        <v>25.43001209536124</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>33.20808357121675</v>
+        <v>25.43001210518753</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>9.86074450905296</v>
+        <v>25.43001206673157</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>34.41408269135558</v>
+        <v>25.43001210066138</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>39.78951555624182</v>
+        <v>25.4300121107819</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>15.91327797543626</v>
+        <v>25.43001207190905</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>48.02278549831292</v>
+        <v>25.43001210754933</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>50.68522112118609</v>
+        <v>25.43001211678038</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>48.61573835571196</v>
+        <v>25.43001211980548</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>52.99528556681997</v>
+        <v>25.43001213123892</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>56.86836034875056</v>
+        <v>25.430012135226</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.21953669427518</v>
+        <v>25.43001209160631</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>43.41994725659327</v>
+        <v>25.43001212487452</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>52.99671332638145</v>
+        <v>25.43001213426384</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.77735504868572</v>
+        <v>25.43001210353584</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>34.99070107497299</v>
+        <v>25.43001213607658</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>40.6134591191175</v>
+        <v>25.43001214811661</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>8.373206263784517</v>
+        <v>25.430012101705</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.0999103497892</v>
+        <v>25.43001213856395</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>38.78917292644705</v>
+        <v>25.43001215161786</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>11.09861883335391</v>
+        <v>25.43001211041659</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>45.37574062783743</v>
+        <v>25.43001215016628</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.09867949909817</v>
+        <v>25.43001206889919</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.39626679283981</v>
+        <v>25.43001209720921</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>35.02819016151511</v>
+        <v>25.43001210695972</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>11.93283775306849</v>
+        <v>25.43001206918169</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>37.18307412554666</v>
+        <v>25.43001210308379</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>42.85994737276661</v>
+        <v>25.43001211318955</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>18.08995172293145</v>
+        <v>25.4300120743521</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>50.68886599472377</v>
+        <v>25.43001210993998</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>53.68828124962963</v>
+        <v>25.43001211911681</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>51.54892780704778</v>
+        <v>25.43001212201019</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>55.84165253360129</v>
+        <v>25.43001213331873</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>60.15451824289745</v>
+        <v>25.43001213732577</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>26.80166597089084</v>
+        <v>25.43001209363754</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>46.04471420805128</v>
+        <v>25.43001212702366</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>55.71565171312508</v>
+        <v>25.43001213633885</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>17.14096950156462</v>
+        <v>25.43001210579359</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.97740678399877</v>
+        <v>25.43001213828998</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>42.90255080318972</v>
+        <v>25.43001215029383</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>10.85552875643565</v>
+        <v>25.43001210452697</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.47067114052139</v>
+        <v>25.43001214135334</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>42.57948900104716</v>
+        <v>25.43001215442927</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>13.78878588388262</v>
+        <v>25.43001211324911</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>48.76304387741554</v>
+        <v>25.43001215293485</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-1.620170243934344</v>
+        <v>25.43001206085421</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>10.38461931031715</v>
+        <v>25.43001208807546</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>15.88985312054986</v>
+        <v>25.43001209794043</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-8.93022748927795</v>
+        <v>25.43001206069783</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>14.5621250072142</v>
+        <v>25.43001209315424</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>19.93948416380504</v>
+        <v>25.43001210341459</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-3.656413911837565</v>
+        <v>25.43001206514564</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>27.55622353573674</v>
+        <v>25.43001209934123</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.28246120576276</v>
+        <v>25.43001210868782</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.48324341842536</v>
+        <v>25.43001211151073</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>32.9774067165499</v>
+        <v>25.43001212274611</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.78830286272377</v>
+        <v>25.43001212672358</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>6.57824019627563</v>
+        <v>25.43001208427514</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>23.14845674878522</v>
+        <v>25.43001211658987</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.19647813542613</v>
+        <v>25.43001212616088</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-3.032953699310503</v>
+        <v>25.43001209523924</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>15.24324090216183</v>
+        <v>25.43001212651528</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>20.9374188209584</v>
+        <v>25.43001213861499</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-13.00862495862715</v>
+        <v>25.43001209350848</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>8.329148062883979</v>
+        <v>25.43001212876134</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>16.0042328239661</v>
+        <v>25.43001214199388</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-11.28599516653148</v>
+        <v>25.43001210126029</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.75648735065919</v>
+        <v>25.43001213939348</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>40.41002244355077</v>
+        <v>25.43001214139124</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>30.71389633469409</v>
+        <v>25.43001213968029</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>40.07269184757338</v>
+        <v>25.43001215501504</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>45.87384635777624</v>
+        <v>25.43001215966589</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>11.83525981584709</v>
+        <v>25.43001210963921</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>33.41503826413206</v>
+        <v>25.43001214730727</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>40.5778069492287</v>
+        <v>25.4300121577445</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>13.50222688759977</v>
+        <v>25.43001212899642</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>32.8557319825705</v>
+        <v>25.43001216113849</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>41.0650311707715</v>
+        <v>25.43001217311761</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>0.7502732849408416</v>
+        <v>25.43001212566687</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.89775804560749</v>
+        <v>25.43001216207317</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.6931847953631</v>
+        <v>25.43001217474278</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>5.66506088878636</v>
+        <v>25.43001213570092</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>42.3602212029763</v>
+        <v>25.43001217481397</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>52.78897999389246</v>
+        <v>25.43001218642544</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>47.53732963270463</v>
+        <v>25.43001218247814</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>56.78315070623069</v>
+        <v>25.43001219735788</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>64.71013300419061</v>
+        <v>25.43001220123189</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.582973948522</v>
+        <v>25.43001214962743</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>46.59233873813972</v>
+        <v>25.4300121880441</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>54.82960511982342</v>
+        <v>25.43001219863919</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>51.71336520610375</v>
+        <v>25.43001216213616</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>44.20620251734161</v>
+        <v>25.43001215972366</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>53.08358729792747</v>
+        <v>25.43001217509854</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>59.20894391293294</v>
+        <v>25.43001217987612</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.96990528320751</v>
+        <v>25.43001212758879</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>48.25800554710475</v>
+        <v>25.43001216754949</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>54.41655399817807</v>
+        <v>25.4300121778575</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>20.20210318169642</v>
+        <v>25.43001214632903</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>43.13569010149952</v>
+        <v>25.43001218045026</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>50.95062247283749</v>
+        <v>25.43001219242883</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.77706291186693</v>
+        <v>25.43001214481579</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.26705103922014</v>
+        <v>25.43001218384352</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>47.94859356455436</v>
+        <v>25.43001219658493</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>16.89823508958915</v>
+        <v>25.4300121560818</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>58.74271133903935</v>
+        <v>25.43001219767612</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.65730659505094</v>
+        <v>25.43001220923946</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>66.48524490117364</v>
+        <v>25.43001220459846</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>74.94207248548757</v>
+        <v>25.43001221947534</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>83.23375742016881</v>
+        <v>25.43001222341368</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.26454628151283</v>
+        <v>25.43001216961031</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>66.50731139432352</v>
+        <v>25.43001221029878</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>73.57318422735894</v>
+        <v>25.43001222063996</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>55.52399416109868</v>
+        <v>25.430012164881</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>47.2796416535766</v>
+        <v>25.43001216220687</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>56.05450397757153</v>
+        <v>25.43001217739761</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>62.63215970187255</v>
+        <v>25.43001218219501</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>23.00016632782267</v>
+        <v>25.4300121299871</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>51.46313510760881</v>
+        <v>25.4300121699965</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>57.90189381198492</v>
+        <v>25.43001218025781</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.48847742982152</v>
+        <v>25.43001214851519</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>46.1067259031002</v>
+        <v>25.43001218261406</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>54.18211101821268</v>
+        <v>25.43001219452658</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>14.38437631689921</v>
+        <v>25.43001214761702</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>44.84487293986513</v>
+        <v>25.43001218664851</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>52.8890727984928</v>
+        <v>25.43001219937027</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>20.74373621973827</v>
+        <v>25.43001215885972</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>63.36096797537792</v>
+        <v>25.43001220041013</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>73.59447079302433</v>
+        <v>25.43001221191209</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>70.94010356707227</v>
+        <v>25.43001220709155</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>79.264604696242</v>
+        <v>25.43001222178212</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>87.97203833349897</v>
+        <v>25.43001222572869</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>31.42315538662078</v>
+        <v>25.43001217197619</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>70.95481833698936</v>
+        <v>25.43001221274951</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>78.26116614725899</v>
+        <v>25.4300122230045</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.16741704040886</v>
+        <v>25.43001215147816</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>21.54307055094195</v>
+        <v>25.43001214879776</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>30.71345144748043</v>
+        <v>25.43001216397204</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.83174943198645</v>
+        <v>25.43001216874454</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-0.1751091901250588</v>
+        <v>25.4300121178802</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.30282699850058</v>
+        <v>25.43001215669654</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>31.81852015938473</v>
+        <v>25.4300121672241</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-0.5515185615808216</v>
+        <v>25.43001213721629</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>21.31836481393094</v>
+        <v>25.4300121701039</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.31358224357864</v>
+        <v>25.43001218217324</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-12.75862171791951</v>
+        <v>25.43001213590783</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>15.21920894327662</v>
+        <v>25.43001217334339</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.96913061224536</v>
+        <v>25.43001218625648</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-7.749082955364158</v>
+        <v>25.43001214616829</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>32.72156344441577</v>
+        <v>25.43001218615963</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>42.91782612500279</v>
+        <v>25.43001219787578</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>41.37455833075881</v>
+        <v>25.43001219313532</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>50.20010092188033</v>
+        <v>25.43001220782906</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>58.47683587293857</v>
+        <v>25.43001221180252</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>4.859562180689628</v>
+        <v>25.43001215919397</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>41.2630937199982</v>
+        <v>25.43001219887347</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>48.71770105258221</v>
+        <v>25.43001220946066</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.929966336713467</v>
+        <v>25.43001205311982</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>17.35560431386029</v>
+        <v>25.43001207992534</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.70358639148543</v>
+        <v>25.43001208979014</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>0.2331459765466954</v>
+        <v>25.43001205097723</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>19.22757080754081</v>
+        <v>25.43001208286216</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.54081135838937</v>
+        <v>25.43001209294381</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.842612455057901</v>
+        <v>25.4300120552172</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>32.31764509197786</v>
+        <v>25.43001208893502</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>34.94423987857467</v>
+        <v>25.43001209824926</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.88037000084493</v>
+        <v>25.43001210167718</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>34.56248900680674</v>
+        <v>25.43001211308568</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>37.5551114551811</v>
+        <v>25.43001211701302</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>11.52422476114873</v>
+        <v>25.4300120753404</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>24.51462661707442</v>
+        <v>25.43001210675518</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>34.94719646592227</v>
+        <v>25.43001211635346</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>14.50485979828294</v>
+        <v>25.4300120879651</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>31.34623710047869</v>
+        <v>25.43001211892946</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.69670810803276</v>
+        <v>25.43001213087103</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>4.057241748569188</v>
+        <v>25.43001208429391</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.53195736092294</v>
+        <v>25.4300121190317</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.79121815538696</v>
+        <v>25.43001213195233</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>5.936925316017696</v>
+        <v>25.4300120919288</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.60852042330475</v>
+        <v>25.43001212966711</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>9.722862462331278</v>
+        <v>25.43001206443991</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>21.85995777104727</v>
+        <v>25.4300120929681</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.88320770730986</v>
+        <v>25.43001210279732</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.986164844129031</v>
+        <v>25.43001206397681</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.16260627674949</v>
+        <v>25.43001209810333</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>32.31233181383083</v>
+        <v>25.43001210825436</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>9.18996437080798</v>
+        <v>25.43001206908314</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.42375781884975</v>
+        <v>25.43001210493803</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>42.70474477635167</v>
+        <v>25.43001211420809</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>41.28443381009036</v>
+        <v>25.4300121174651</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>45.71729517781973</v>
+        <v>25.43001212898425</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>49.14721563724123</v>
+        <v>25.43001213303949</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>18.36072452554429</v>
+        <v>25.43001208907223</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.36639858487964</v>
+        <v>25.43001212261072</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>45.40920713481604</v>
+        <v>25.43001213201858</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.83583922021641</v>
+        <v>25.43001210340311</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>37.88431597203512</v>
+        <v>25.43001213630431</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>43.10267876706602</v>
+        <v>25.43001214833432</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>10.02525828392024</v>
+        <v>25.43001210151885</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>33.30132798057804</v>
+        <v>25.43001213877506</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>40.7465796818696</v>
+        <v>25.43001215184404</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>12.82852867789164</v>
+        <v>25.43001211034922</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>48.09834927725628</v>
+        <v>25.43001215051153</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>10.89216989489107</v>
+        <v>25.43001206635954</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.55302355034008</v>
+        <v>25.43001209486747</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.82026810537828</v>
+        <v>25.43001210462106</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6.172192309642671</v>
+        <v>25.43001206648357</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>30.06054030393375</v>
+        <v>25.43001210058257</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>35.51517774055816</v>
+        <v>25.43001211071875</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>11.50469323459105</v>
+        <v>25.43001207158463</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>43.23718597000092</v>
+        <v>25.43001210738662</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>45.85996341510592</v>
+        <v>25.43001211660176</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>44.36255812931967</v>
+        <v>25.43001211972603</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>48.70994458501575</v>
+        <v>25.43001213111766</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>52.58129287338289</v>
+        <v>25.4300121351944</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.07269384230783</v>
+        <v>25.43001209115941</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>39.12471579930241</v>
+        <v>25.43001212481348</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>48.27241281585549</v>
+        <v>25.43001213414807</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>19.27630968621495</v>
+        <v>25.43001210569748</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>39.95305277346063</v>
+        <v>25.43001213855392</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>45.47524590203488</v>
+        <v>25.43001215054767</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>12.59163293338528</v>
+        <v>25.43001210438117</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>36.77105276968556</v>
+        <v>25.43001214160542</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>44.63227788016362</v>
+        <v>25.43001215469516</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>15.62146819611511</v>
+        <v>25.43001211322186</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>51.59760081696592</v>
+        <v>25.43001215331981</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-7.143138757768933</v>
+        <v>25.43001205829855</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>4.202298993830226</v>
+        <v>25.4300120857045</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>9.327367601083525</v>
+        <v>25.43001209557688</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-15.04121974460743</v>
+        <v>25.43001205798727</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>7.043329880888578</v>
+        <v>25.43001209062156</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>12.19142368275785</v>
+        <v>25.43001210092003</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-10.63977248807867</v>
+        <v>25.43001206236957</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>19.66792539121772</v>
+        <v>25.43001209676489</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>22.00753770450241</v>
+        <v>25.43001210615574</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>20.8834812784519</v>
+        <v>25.4300121092153</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.4349495776907</v>
+        <v>25.43001212053029</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.79800763962007</v>
+        <v>25.43001212457612</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-0.5167130851661961</v>
+        <v>25.4300120817924</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>15.84537785518333</v>
+        <v>25.43001211436071</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.34316711903782</v>
+        <v>25.43001212395941</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-1.107134576422666</v>
+        <v>25.43001209505668</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>17.99539824984159</v>
+        <v>25.43001212667301</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>23.28275233441034</v>
+        <v>25.43001213876889</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-11.51121668980283</v>
+        <v>25.43001209328075</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>10.35867105424138</v>
+        <v>25.43001212890852</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>17.7921038679812</v>
+        <v>25.43001214216222</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-9.71799014251356</v>
+        <v>25.4300121011479</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>24.30302847590838</v>
+        <v>25.43001213967226</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>42.53866095541905</v>
+        <v>25.43001214158549</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>33.20731089999541</v>
+        <v>25.4300121399386</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>42.69099370794961</v>
+        <v>25.43001215538473</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>47.94437383131263</v>
+        <v>25.4300121600666</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.46373480338549</v>
+        <v>25.43001210951977</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>36.07442490880545</v>
+        <v>25.43001214759622</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>42.93677459664495</v>
+        <v>25.43001215807412</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>14.80216814751662</v>
+        <v>25.4300121289298</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>35.0251896429539</v>
+        <v>25.43001216141516</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>42.90169449284916</v>
+        <v>25.43001217338066</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1.691852051784918</v>
+        <v>25.4300121254904</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.57484961520321</v>
+        <v>25.4300121622905</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.91652084725065</v>
+        <v>25.43001217494684</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>6.611484217617567</v>
+        <v>25.43001213563807</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>44.41820634184599</v>
+        <v>25.43001217515063</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>54.23139310231235</v>
+        <v>25.43001218677574</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>49.45489431386662</v>
+        <v>25.43001218286482</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>59.27834151103173</v>
+        <v>25.43001219785895</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>66.20788371375963</v>
+        <v>25.43001220175764</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>15.46957499425887</v>
+        <v>25.43001214962261</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>49.18453027940667</v>
+        <v>25.43001218845909</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>56.84263336502238</v>
+        <v>25.43001219905808</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>53.9782412860374</v>
+        <v>25.43001216250895</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>46.86236755803294</v>
+        <v>25.43001216015168</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>55.8546726167927</v>
+        <v>25.43001217563859</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>61.41517664500493</v>
+        <v>25.43001218044634</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>22.69019361880728</v>
+        <v>25.43001212761925</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>51.07104877890179</v>
+        <v>25.43001216801278</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>56.90792928451827</v>
+        <v>25.43001217835413</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>21.64682529084558</v>
+        <v>25.43001214642173</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>45.51277591057465</v>
+        <v>25.43001218091505</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>52.97795954898814</v>
+        <v>25.43001219287319</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>11.91074184783064</v>
+        <v>25.43001214481075</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.2279599594866</v>
+        <v>25.43001218426932</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>49.41865269274503</v>
+        <v>25.43001219698991</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>18.05525061656468</v>
+        <v>25.4300121561915</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>61.10702306269596</v>
+        <v>25.43001219821629</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>70.36867323573429</v>
+        <v>25.43001220978482</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>68.68977968642531</v>
+        <v>25.43001220516785</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>77.71553013515656</v>
+        <v>25.43001222015998</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>84.99041237187582</v>
+        <v>25.43001222412301</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.36116325061476</v>
+        <v>25.43001216976864</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>69.40299908000823</v>
+        <v>25.43001221090298</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>75.86612618893469</v>
+        <v>25.43001222124358</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>57.89834368257979</v>
+        <v>25.43001216529165</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>50.03865231527462</v>
+        <v>25.43001216267266</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>58.93052765465753</v>
+        <v>25.43001217797282</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>64.94457723947723</v>
+        <v>25.43001218279998</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>24.81460793617359</v>
+        <v>25.43001213005548</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>54.37353996852889</v>
+        <v>25.43001217049569</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>60.49270463065405</v>
+        <v>25.43001218078918</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>24.01897186028472</v>
+        <v>25.4300121486434</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>48.5744380526808</v>
+        <v>25.4300121831144</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>56.30320555794403</v>
+        <v>25.43001219500591</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>15.61741265173168</v>
+        <v>25.43001214765242</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>46.92112126229893</v>
+        <v>25.4300121871161</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>54.47258524100282</v>
+        <v>25.43001219981575</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>22.01520296030828</v>
+        <v>25.4300121590094</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>65.8491652518118</v>
+        <v>25.43001220099016</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>75.42983936441499</v>
+        <v>25.43001221249568</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>73.26398135205247</v>
+        <v>25.43001220769761</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>82.15324685216628</v>
+        <v>25.43001222250091</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>89.84843927089901</v>
+        <v>25.43001222647228</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>32.62561240158109</v>
+        <v>25.43001217217091</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>73.96504401777251</v>
+        <v>25.43001221338942</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>80.67094723192433</v>
+        <v>25.43001222364367</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.25582637959345</v>
+        <v>25.43001215179045</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.03294719367412</v>
+        <v>25.43001214917653</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>33.3252427297645</v>
+        <v>25.43001216445754</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>38.87293832636481</v>
+        <v>25.4300121692598</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>1.399061919599787</v>
+        <v>25.43001211786883</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>27.96361176340633</v>
+        <v>25.43001215710073</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>34.15516489375399</v>
+        <v>25.43001216766942</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>0.7300680307413314</v>
+        <v>25.43001213724693</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>23.52238030300592</v>
+        <v>25.43001217048823</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.16567007969141</v>
+        <v>25.43001218254354</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-11.81841221835366</v>
+        <v>25.43001213585135</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>16.96921537417726</v>
+        <v>25.43001217369495</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>24.22717764783314</v>
+        <v>25.43001218659485</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-6.796908781988717</v>
+        <v>25.43001214622343</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>34.86547993405113</v>
+        <v>25.43001218662449</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>44.40654463932127</v>
+        <v>25.43001219835203</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>43.37307567453786</v>
+        <v>25.43001219364662</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>52.78063475877484</v>
+        <v>25.4300122084493</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>60.0282211455395</v>
+        <v>25.43001221244776</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>5.766899331052112</v>
+        <v>25.4300121593017</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>43.96493797328365</v>
+        <v>25.4300121994107</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>50.80974410868428</v>
+        <v>25.43001221000419</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>11.46055247996764</v>
+        <v>25.43001206394507</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.98274830649745</v>
+        <v>25.43001209055327</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>23.24435698582578</v>
+        <v>25.43001210062877</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.185922343408754</v>
+        <v>25.43001206266048</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.59610053268419</v>
+        <v>25.43001209432683</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.19516047935035</v>
+        <v>25.43001210460969</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.915258555086662</v>
+        <v>25.4300120669385</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.41792609072354</v>
+        <v>25.43001210059979</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.55194622521757</v>
+        <v>25.43001211011062</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.76439564255187</v>
+        <v>25.43001211252871</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.59434436247815</v>
+        <v>25.43001212420992</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>35.25716261393105</v>
+        <v>25.4300121280677</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>12.99537162359605</v>
+        <v>25.43001208646613</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.89844329818118</v>
+        <v>25.43001211757221</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>33.66550284544446</v>
+        <v>25.43001212724279</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>10.92448647017146</v>
+        <v>25.43001209457189</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>20.57130525739805</v>
+        <v>25.43001212499467</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>27.38805291773119</v>
+        <v>25.43001213708931</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.694122817498874</v>
+        <v>25.43001209180728</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>15.47058586589695</v>
+        <v>25.43001212565049</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>23.01361340790215</v>
+        <v>25.4300121387788</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-0.06436953964265157</v>
+        <v>25.43001209867534</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.49201384097648</v>
+        <v>25.43001213586385</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.18425334010835</v>
+        <v>25.43001207614795</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.37116816207349</v>
+        <v>25.43001210448926</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.27081279408251</v>
+        <v>25.43001211451555</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>8.744144596999833</v>
+        <v>25.43001207659049</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.29354388273108</v>
+        <v>25.43001211047118</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.76680260317297</v>
+        <v>25.43001212084239</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.17299607290373</v>
+        <v>25.43001208183372</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.36284807120472</v>
+        <v>25.43001211766083</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>43.1657422393251</v>
+        <v>25.43001212711557</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>39.06980212050181</v>
+        <v>25.43001212937849</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>43.62807706657686</v>
+        <v>25.43001214118124</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>47.72299685440283</v>
+        <v>25.43001214514447</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.72840737616406</v>
+        <v>25.43001210124342</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.63430986005552</v>
+        <v>25.43001213447843</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>45.01221877642808</v>
+        <v>25.43001214394004</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>14.54936224131699</v>
+        <v>25.43001211064173</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>27.27578074571493</v>
+        <v>25.430012142999</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>33.96898790150309</v>
+        <v>25.43001215515901</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>9.916854432360713</v>
+        <v>25.43001210969189</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.27563978858304</v>
+        <v>25.43001214598368</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>34.11971217072106</v>
+        <v>25.43001215930041</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>34.13996473921824</v>
+        <v>25.43001215746409</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>15.71092345549909</v>
+        <v>25.43001207821138</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>24.50232517727697</v>
+        <v>25.43001210655251</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>30.58846361134211</v>
+        <v>25.43001211649246</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>11.22287520418293</v>
+        <v>25.43001207922941</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>32.54705286154495</v>
+        <v>25.43001211310112</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>38.29681690386117</v>
+        <v>25.43001212345148</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>13.85111526702937</v>
+        <v>25.43001208449267</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>42.61091920328898</v>
+        <v>25.43001212028999</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>46.70367613917992</v>
+        <v>25.43001212968076</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>42.5171659036409</v>
+        <v>25.43001213178439</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>47.0001784338647</v>
+        <v>25.43001214346318</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>51.50688494954552</v>
+        <v>25.43001214744076</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.74680137423077</v>
+        <v>25.4300121034665</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>37.78929854362682</v>
+        <v>25.43001213683879</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>48.23833374735285</v>
+        <v>25.43001214622412</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>16.311485079408</v>
+        <v>25.43001211311156</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.73766549691927</v>
+        <v>25.43001214544626</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>36.68426914854226</v>
+        <v>25.4300121575574</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>12.75041328512784</v>
+        <v>25.4300121127138</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>30.04790040200846</v>
+        <v>25.4300121489947</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>38.30276710243037</v>
+        <v>25.43001216232569</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>10.3088709405476</v>
+        <v>25.43001212090721</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>38.05488081387863</v>
+        <v>25.4300121604922</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-2.937291950328949</v>
+        <v>25.43001206972289</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>4.419825735894095</v>
+        <v>25.43001209697072</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>10.44423696873366</v>
+        <v>25.43001210703761</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-10.47134737267558</v>
+        <v>25.43001207025769</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>8.963810606762651</v>
+        <v>25.43001210269562</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>14.42317201337206</v>
+        <v>25.43001211320115</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-8.927833092482498</v>
+        <v>25.43001207475979</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>18.32590042205851</v>
+        <v>25.43001210914733</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.20032582560595</v>
+        <v>25.43001211872852</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>18.35557171336655</v>
+        <v>25.43001212069764</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.05268904261945</v>
+        <v>25.43001213231233</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.06345901300647</v>
+        <v>25.43001213628278</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>1.584893583353211</v>
+        <v>25.43001209354337</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.80935457936833</v>
+        <v>25.43001212585014</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>24.65517691383203</v>
+        <v>25.43001213551922</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-4.590901547511693</v>
+        <v>25.43001210228779</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>7.134117947073417</v>
+        <v>25.43001213339496</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>13.9028722586345</v>
+        <v>25.43001214563407</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-11.70516864919555</v>
+        <v>25.43001210137583</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>3.222407228779926</v>
+        <v>25.43001213611855</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>11.01635236126869</v>
+        <v>25.43001214959871</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-15.60493083473386</v>
+        <v>25.43001210856689</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>10.0689916248382</v>
+        <v>25.43001214658138</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.79521557387012</v>
+        <v>25.43001214798009</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>20.7751436939785</v>
+        <v>25.43001214556554</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.3652098030188</v>
+        <v>25.43001216138843</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>36.88618729811263</v>
+        <v>25.4300121660874</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>5.612025707800765</v>
+        <v>25.43001211583342</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>22.61189193976169</v>
+        <v>25.43001215333351</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>30.51898566299228</v>
+        <v>25.43001216362911</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.90340031321886</v>
+        <v>25.43001213359565</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.46463688531026</v>
+        <v>25.43001216536335</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>35.0857918355971</v>
+        <v>25.43001217762685</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>3.783859540571379</v>
+        <v>25.43001213108395</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>21.51943191171242</v>
+        <v>25.43001216680403</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.76362321075437</v>
+        <v>25.43001217982951</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>2.519353549181904</v>
+        <v>25.43001214028335</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>31.75890761422231</v>
+        <v>25.43001217904228</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>45.08589248478319</v>
+        <v>25.43001219104093</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.10129777719351</v>
+        <v>25.43001218639328</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>48.15222754933566</v>
+        <v>25.43001220179299</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>58.03027184692939</v>
+        <v>25.43001220570581</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>9.321672251993487</v>
+        <v>25.43001215400263</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>35.17448009787208</v>
+        <v>25.43001219193561</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>46.44705259396147</v>
+        <v>25.43001220271993</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>42.48304793138723</v>
+        <v>25.43001216965103</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>34.65695454401589</v>
+        <v>25.43001216653305</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.65134619803524</v>
+        <v>25.43001218241222</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>50.56379450646882</v>
+        <v>25.43001218722107</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>15.07835739151749</v>
+        <v>25.43001213468842</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>37.7324292308048</v>
+        <v>25.43001217451582</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>44.6880732957631</v>
+        <v>25.43001218466452</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.15551739460401</v>
+        <v>25.43001215171006</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.1901783409085</v>
+        <v>25.4300121854838</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>45.44327346924837</v>
+        <v>25.4300121977263</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>14.3260709453402</v>
+        <v>25.43001215102687</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>37.24544215364217</v>
+        <v>25.43001218933503</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>45.46494332159458</v>
+        <v>25.43001220246765</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>14.34248093925831</v>
+        <v>25.43001216154908</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>48.58432083831171</v>
+        <v>25.43001220283502</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>61.51888999161319</v>
+        <v>25.43001221477409</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>59.59923471242706</v>
+        <v>25.43001220939135</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>66.7304538259461</v>
+        <v>25.43001222480186</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>77.03367474576746</v>
+        <v>25.43001222876887</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>23.49663705551347</v>
+        <v>25.43001217485759</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>55.45654619432317</v>
+        <v>25.430012215089</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.67882864843148</v>
+        <v>25.43001222561187</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>46.77647479253371</v>
+        <v>25.43001217264499</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>38.17442755824791</v>
+        <v>25.43001216923763</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>46.0705941739707</v>
+        <v>25.43001218492674</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>54.40735859916246</v>
+        <v>25.43001218975409</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>17.51821008447719</v>
+        <v>25.43001213729959</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>41.40360390569172</v>
+        <v>25.43001217719308</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>48.62424674934178</v>
+        <v>25.43001218729546</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>22.86098905264053</v>
+        <v>25.43001215410398</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>39.65045374749936</v>
+        <v>25.43001218787596</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>49.12746197474446</v>
+        <v>25.43001220004243</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>18.29533880904565</v>
+        <v>25.43001215402488</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>42.23157257760945</v>
+        <v>25.43001219235651</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>50.80949390132184</v>
+        <v>25.43001220546465</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>18.63254784173485</v>
+        <v>25.43001216455718</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>53.72440556939302</v>
+        <v>25.43001220582219</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>66.94238227934669</v>
+        <v>25.43001221769167</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>64.48801834278187</v>
+        <v>25.43001221210009</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>71.48498457826125</v>
+        <v>25.43001222731987</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>82.18436861413429</v>
+        <v>25.43001223129295</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>27.06897481764519</v>
+        <v>25.43001217743371</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>60.34943670338124</v>
+        <v>25.43001221775862</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>70.80803825864558</v>
+        <v>25.43001222819815</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>18.48103904041018</v>
+        <v>25.4300121589035</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>11.57210301209133</v>
+        <v>25.43001215542822</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>19.90001635013937</v>
+        <v>25.43001217109499</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>27.76661888793507</v>
+        <v>25.43001217592155</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-6.426673725987958</v>
+        <v>25.43001212481575</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>14.3755134724581</v>
+        <v>25.43001216351285</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>21.66991191882719</v>
+        <v>25.43001217391027</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-0.8853464250416367</v>
+        <v>25.4300121424966</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>14.0321791306747</v>
+        <v>25.43001217504167</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>23.46217852081242</v>
+        <v>25.43001218739949</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-9.374652605319351</v>
+        <v>25.43001214196365</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>12.00393221091734</v>
+        <v>25.4300121787224</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>20.24594477879784</v>
+        <v>25.43001219202651</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>-10.6223096688278</v>
+        <v>25.43001215147731</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>22.20229214017087</v>
+        <v>25.4300121911536</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>35.40185842503873</v>
+        <v>25.4300122032728</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>34.15161583753704</v>
+        <v>25.43001219772178</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>41.69583838153583</v>
+        <v>25.43001221294873</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>51.94978017358708</v>
+        <v>25.43001221696391</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-0.2120706083591166</v>
+        <v>25.43001216424033</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.87573231417515</v>
+        <v>25.43001220345612</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>40.47350317156778</v>
+        <v>25.43001221426607</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>10.7101962973265</v>
+        <v>25.43001206832113</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>17.7116685566419</v>
+        <v>25.43001209503172</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.4640543960869</v>
+        <v>25.43001210507605</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>3.868401506954163</v>
+        <v>25.43001206737438</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>22.01825435963559</v>
+        <v>25.43001209918246</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.98166637431367</v>
+        <v>25.43001210942486</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>5.894993723665372</v>
+        <v>25.4300120718345</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>32.47572309672456</v>
+        <v>25.43001210560285</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.92442837905953</v>
+        <v>25.43001211507138</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.35859821519605</v>
+        <v>25.43001211707702</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>34.68330341719256</v>
+        <v>25.43001212876835</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>38.33612212507359</v>
+        <v>25.43001213260461</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>13.48339700599467</v>
+        <v>25.43001209083662</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>24.38224123502543</v>
+        <v>25.43001212206018</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>36.77765048708087</v>
+        <v>25.43001213171532</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>14.1797632331034</v>
+        <v>25.43001209953085</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.90022767874129</v>
+        <v>25.4300121300835</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.80958635925096</v>
+        <v>25.43001214211336</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>7.112979898100813</v>
+        <v>25.43001209714406</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>21.22557394987722</v>
+        <v>25.43001213114516</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.75604972609408</v>
+        <v>25.43001214419223</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>4.010692374250948</v>
+        <v>25.43001210425394</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.32186982814895</v>
+        <v>25.43001214158294</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>13.61349437129211</v>
+        <v>25.43001208058225</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>23.31811811751425</v>
+        <v>25.43001210903214</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.7065804657216</v>
+        <v>25.43001211901724</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>8.614394576158318</v>
+        <v>25.43001208136086</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.95822571255532</v>
+        <v>25.43001211539196</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>36.78276930821927</v>
+        <v>25.43001212570913</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>11.36498625507896</v>
+        <v>25.43001208678169</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.68349219134628</v>
+        <v>25.43001212272011</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>45.78912568156473</v>
+        <v>25.43001213212147</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>41.93842215140644</v>
+        <v>25.43001213396017</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>46.98599572366651</v>
+        <v>25.43001214577448</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>51.04510722480791</v>
+        <v>25.43001214971076</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>21.41487018156149</v>
+        <v>25.43001210564956</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>37.37580112105977</v>
+        <v>25.43001213900754</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>48.38414340717341</v>
+        <v>25.43001214844126</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>18.06804795974764</v>
+        <v>25.43001211566581</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>32.91793384871917</v>
+        <v>25.43001214816234</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>39.69248220592228</v>
+        <v>25.43001216024201</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>13.61186120001802</v>
+        <v>25.43001211508994</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>32.37877583632719</v>
+        <v>25.43001215155157</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>40.18680186967948</v>
+        <v>25.43001216476591</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>41.3363830707087</v>
+        <v>25.43001216324755</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>15.17414269343464</v>
+        <v>25.43001208260291</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.48507343605471</v>
+        <v>25.430012111054</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>32.05842425157763</v>
+        <v>25.43001212095121</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>11.1322929264272</v>
+        <v>25.43001208395402</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.25368355428573</v>
+        <v>25.43001211797682</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>40.35184053260503</v>
+        <v>25.4300121282713</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>14.08212598595082</v>
+        <v>25.43001208939252</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>44.969671742367</v>
+        <v>25.43001212530222</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.36125072356109</v>
+        <v>25.43001213463738</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>45.43219921213286</v>
+        <v>25.43001213632002</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>50.40252952493525</v>
+        <v>25.4300121480108</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>54.86833681718149</v>
+        <v>25.43001215196072</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>23.4723138155505</v>
+        <v>25.43001210782814</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>40.56967881625106</v>
+        <v>25.43001214132411</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>51.64535535930356</v>
+        <v>25.43001215068015</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>19.8589217584892</v>
+        <v>25.43001211808343</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>35.41156015977747</v>
+        <v>25.43001215055837</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>42.43293689067564</v>
+        <v>25.4300121625876</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>16.4809680355735</v>
+        <v>25.4300121180551</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.19165344204791</v>
+        <v>25.43001215450607</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>44.40336627775674</v>
+        <v>25.43001216773241</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>14.71659108014726</v>
+        <v>25.43001212648328</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>45.28516111868481</v>
+        <v>25.43001216621647</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-3.495972058896171</v>
+        <v>25.43001207407956</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>5.384282654124481</v>
+        <v>25.43001210143465</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>11.90498911602723</v>
+        <v>25.43001211146514</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-10.57324536205464</v>
+        <v>25.43001207494897</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>10.6598322698983</v>
+        <v>25.43001210753193</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>16.48008048357084</v>
+        <v>25.43001211799147</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-8.712121501306211</v>
+        <v>25.4300120796313</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>20.67972199474817</v>
+        <v>25.43001211413032</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>24.86482895760781</v>
+        <v>25.43001212366158</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>21.25656047877954</v>
+        <v>25.4300121252204</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>26.45248947120486</v>
+        <v>25.43001213684771</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>30.43360177212196</v>
+        <v>25.43001214079394</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>2.301253778676128</v>
+        <v>25.43001209788861</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>16.58782216679563</v>
+        <v>25.43001213031491</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.06885772518131</v>
+        <v>25.43001213996525</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-1.012173332025315</v>
+        <v>25.43001210720713</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>12.84807174681532</v>
+        <v>25.43001213844934</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>19.70161594096438</v>
+        <v>25.43001215061671</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-7.934486769302173</v>
+        <v>25.43001210666571</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>9.40908248665302</v>
+        <v>25.43001214156985</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>17.17440128159141</v>
+        <v>25.4300121549595</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-11.1526211596302</v>
+        <v>25.43001211409549</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>17.35997292817336</v>
+        <v>25.43001215225473</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>37.57357223143807</v>
+        <v>25.43001215362584</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>27.73867168183947</v>
+        <v>25.43001215080442</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.92074090541315</v>
+        <v>25.43001216666104</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>44.65247729982534</v>
+        <v>25.43001217132377</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>10.27277505661214</v>
+        <v>25.43001212083606</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>30.06408710891957</v>
+        <v>25.43001215847216</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>37.93985492675602</v>
+        <v>25.43001216870672</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>13.50805494561823</v>
+        <v>25.43001213714638</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>27.7069434106579</v>
+        <v>25.43001216899658</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>37.89833673368653</v>
+        <v>25.43001218123173</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>4.990274476664581</v>
+        <v>25.43001213502052</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>24.69393760311858</v>
+        <v>25.43001217083823</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>33.31383108296568</v>
+        <v>25.4300121838237</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>3.894549675153439</v>
+        <v>25.43001214433352</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>35.39763705221575</v>
+        <v>25.4300121831619</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>49.16499550232712</v>
+        <v>25.43001219513196</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>44.16023154045109</v>
+        <v>25.43001219009125</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>52.95305230802295</v>
+        <v>25.43001220554777</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>63.02952236055981</v>
+        <v>25.43001220942729</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>10.99412201448579</v>
+        <v>25.43001215754143</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>39.52856657288717</v>
+        <v>25.43001219558273</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>51.0807790015289</v>
+        <v>25.43001220633141</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>49.60763419977785</v>
+        <v>25.43001217534444</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.97142067732759</v>
+        <v>25.43001217180916</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.5428137835918</v>
+        <v>25.43001218772053</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>58.65746815966158</v>
+        <v>25.43001219248561</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>20.01498627720104</v>
+        <v>25.43001213973055</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>45.52959637654966</v>
+        <v>25.43001217969812</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>52.44095058946315</v>
+        <v>25.43001218976924</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>20.90368070848174</v>
+        <v>25.43001215524055</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>38.62125399808283</v>
+        <v>25.43001218910437</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>48.4455663795662</v>
+        <v>25.43001220130571</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>15.70051286248976</v>
+        <v>25.4300121549372</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>40.64963645439197</v>
+        <v>25.43001219335187</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>49.2397074883706</v>
+        <v>25.43001220642716</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>15.89110237826415</v>
+        <v>25.43001216556307</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>52.45958511366103</v>
+        <v>25.43001220692304</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>65.82853782497668</v>
+        <v>25.43001221882078</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>63.86947184747632</v>
+        <v>25.43001221302803</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>71.7285063123263</v>
+        <v>25.430012228495</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>82.22806495472456</v>
+        <v>25.43001223242404</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.30848958698988</v>
+        <v>25.43001217834091</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>60.02280808973621</v>
+        <v>25.43001221868747</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>70.52848839804588</v>
+        <v>25.43001222916464</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>53.92649300257104</v>
+        <v>25.43001217827684</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>45.52295532648115</v>
+        <v>25.43001217445658</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>53.99354862134741</v>
+        <v>25.43001219017672</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>62.52467511768176</v>
+        <v>25.4300121949593</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>22.48432263570478</v>
+        <v>25.43001214228644</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>49.22650831078541</v>
+        <v>25.43001218231968</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>23.62384270129936</v>
+        <v>25.43001215758754</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>42.09883661494663</v>
+        <v>25.43001219145053</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>52.14125664865555</v>
+        <v>25.43001220357386</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>19.69556694958912</v>
+        <v>25.4300121578822</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>45.66428994412535</v>
+        <v>25.43001219632075</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>54.60882697590028</v>
+        <v>25.43001220936879</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>20.2026106216635</v>
+        <v>25.43001216851574</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>57.62193423838525</v>
+        <v>25.43001220985523</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>71.26699831621973</v>
+        <v>25.4300122216809</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>68.77947222159435</v>
+        <v>25.43001221568248</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>76.49805365665014</v>
+        <v>25.43001223095716</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>87.39096505942348</v>
+        <v>25.43001223489131</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.90410030360788</v>
+        <v>25.43001218086513</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>64.93378960780876</v>
+        <v>25.43001222130391</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>75.67320862519347</v>
+        <v>25.43001223169659</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.70372634812853</v>
+        <v>25.43001216449371</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>18.97946720272762</v>
+        <v>25.43001216061662</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.89930853424482</v>
+        <v>25.43001217631717</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>35.970096568239</v>
+        <v>25.43001218110167</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-1.405023686716658</v>
+        <v>25.43001212976789</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>22.27334474548857</v>
+        <v>25.43001216860155</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.52384116292787</v>
+        <v>25.43001217893082</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-0.05093448626958885</v>
+        <v>25.43001214598188</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>16.55853663753144</v>
+        <v>25.43001217861283</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.56613116459191</v>
+        <v>25.4300121909364</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-7.893229457010926</v>
+        <v>25.43001214582114</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>15.52331055456814</v>
+        <v>25.43001218267851</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>24.14198733704684</v>
+        <v>25.43001219593514</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-8.964520295174783</v>
+        <v>25.43001215544366</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.19963478113139</v>
+        <v>25.43001219519092</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>39.83941603962164</v>
+        <v>25.43001220727406</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>38.54841565439691</v>
+        <v>25.43001220133182</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>46.83702592962933</v>
+        <v>25.43001221661347</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>57.28656734428453</v>
+        <v>25.43001222058987</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>1.713540682826803</v>
+        <v>25.43001216769427</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>34.57143017856746</v>
+        <v>25.43001220701631</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>45.45159636309298</v>
+        <v>25.43001221778612</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>6.880070430561221</v>
+        <v>25.43001206864407</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>14.03442039761512</v>
+        <v>25.43001209172129</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>18.93597833979514</v>
+        <v>25.43001210033104</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>0.5449314845832589</v>
+        <v>25.43001206725014</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>17.14537808416549</v>
+        <v>25.43001209481486</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>21.64271722219314</v>
+        <v>25.4300121035694</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>3.663238777119816</v>
+        <v>25.43001207088046</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>27.19929343923624</v>
+        <v>25.43001209999908</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.69959623802842</v>
+        <v>25.43001210810147</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>24.36218475863623</v>
+        <v>25.43001211064194</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.89003264984661</v>
+        <v>25.43001212058168</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>31.63215994799904</v>
+        <v>25.43001212395781</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>10.68675738427459</v>
+        <v>25.43001208807047</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>20.34916747148952</v>
+        <v>25.43001211501872</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>30.32007860508057</v>
+        <v>25.43001212337881</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>14.33129208006136</v>
+        <v>25.43001209833348</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>27.54651937901818</v>
+        <v>25.43001212495324</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>31.98515179213562</v>
+        <v>25.43001213528929</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>5.966410483102975</v>
+        <v>25.4300120956138</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>21.49117083562132</v>
+        <v>25.43001212548875</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>27.02333379069384</v>
+        <v>25.43001213665757</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>6.414125165981937</v>
+        <v>25.43001210205664</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.97852905108098</v>
+        <v>25.43001213456683</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>8.53196832481253</v>
+        <v>25.43001207858043</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>17.98868448335787</v>
+        <v>25.43001210314327</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>22.59865407393327</v>
+        <v>25.43001211171329</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>3.811135036101557</v>
+        <v>25.43001207864032</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>24.00787144358207</v>
+        <v>25.4300121081284</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.36082166721033</v>
+        <v>25.43001211693847</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>7.477245070255482</v>
+        <v>25.43001208303771</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>34.21703101525015</v>
+        <v>25.43001211400294</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>36.41930298809174</v>
+        <v>25.43001212205731</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>34.28000818517202</v>
+        <v>25.4300121244682</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>38.57304321760372</v>
+        <v>25.43001213450493</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.68982795389288</v>
+        <v>25.4300121379827</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>16.67649398320664</v>
+        <v>25.4300121001316</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>30.63762737422472</v>
+        <v>25.4300121289008</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>39.38935760451476</v>
+        <v>25.43001213707967</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>17.23516378106941</v>
+        <v>25.43001211180739</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>33.16239144459405</v>
+        <v>25.43001214009578</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>37.47845740923675</v>
+        <v>25.43001215049184</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>11.10372207070708</v>
+        <v>25.43001211063165</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>30.72362513972453</v>
+        <v>25.43001214266392</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>36.42376912310439</v>
+        <v>25.43001215395415</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>12.37465617999106</v>
+        <v>25.43001211812339</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>41.84915887867673</v>
+        <v>25.43001215272633</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>9.614712341750765</v>
+        <v>25.4300120802407</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>19.54129998438322</v>
+        <v>25.43001210479347</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>24.34886668706311</v>
+        <v>25.43001211329272</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>5.753544990592559</v>
+        <v>25.43001208079783</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.57652309842739</v>
+        <v>25.43001211026688</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>31.18541448252065</v>
+        <v>25.43001211905924</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>9.545643758446568</v>
+        <v>25.43001208519699</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>36.72940298150566</v>
+        <v>25.43001211612358</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>39.21541047180181</v>
+        <v>25.43001212412549</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>37.02962263362492</v>
+        <v>25.43001212641817</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>41.24635397019144</v>
+        <v>25.43001213634503</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>44.73468207548794</v>
+        <v>25.43001213983894</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>18.20480561155317</v>
+        <v>25.43001210192551</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>33.10178285424549</v>
+        <v>25.43001213080278</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>41.92872476517464</v>
+        <v>25.43001213891575</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>18.55183703572467</v>
+        <v>25.43001211380021</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>35.03622174387611</v>
+        <v>25.43001214205727</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>39.60094298127085</v>
+        <v>25.43001215241638</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>13.37946100894129</v>
+        <v>25.43001211310555</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.78611455989764</v>
+        <v>25.43001214511623</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>39.84252610220742</v>
+        <v>25.43001215641828</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>14.85950431447323</v>
+        <v>25.4300121206144</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>44.95914991707333</v>
+        <v>25.43001215516907</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-6.062167555069995</v>
+        <v>25.43001207319197</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>2.705071396201855</v>
+        <v>25.43001209680204</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>7.415541663360424</v>
+        <v>25.43001210540659</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>-12.60138619328261</v>
+        <v>25.43001207336816</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>6.653413307041162</v>
+        <v>25.43001210158702</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>11.00693547583756</v>
+        <v>25.43001211051932</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-9.658214635213209</v>
+        <v>25.43001207713947</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>16.29077818157738</v>
+        <v>25.43001210685786</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>18.54939681257011</v>
+        <v>25.43001211501644</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>16.63746770836049</v>
+        <v>25.43001211722969</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>21.05046483819261</v>
+        <v>25.43001212709504</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>24.10465977110215</v>
+        <v>25.43001213057024</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>0.373788088296684</v>
+        <v>25.4300120937114</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>12.90724591687257</v>
+        <v>25.43001212166995</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>22.06906785337766</v>
+        <v>25.43001213002607</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>0.8897579476558954</v>
+        <v>25.43001210456068</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>15.99732677683954</v>
+        <v>25.43001213175693</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>20.37383782490731</v>
+        <v>25.43001214221544</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-7.431454871281017</v>
+        <v>25.4300121034582</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>10.97818766328941</v>
+        <v>25.43001213410856</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>16.65719071322003</v>
+        <v>25.43001214555486</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-7.07039923240182</v>
+        <v>25.43001211012308</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>21.33188253770341</v>
+        <v>25.43001214332613</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>37.0340281102529</v>
+        <v>25.43001214487686</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>29.03306314610451</v>
+        <v>25.43001214312607</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>37.64369740077452</v>
+        <v>25.4300121566098</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>42.65232236657751</v>
+        <v>25.4300121606433</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>13.77595642696444</v>
+        <v>25.43001211705672</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>32.0545172562765</v>
+        <v>25.43001214975498</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>37.81882213010906</v>
+        <v>25.43001215874455</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>14.43582176795235</v>
+        <v>25.43001213262047</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>30.16969311572052</v>
+        <v>25.4300121604892</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>37.46868199412318</v>
+        <v>25.43001217092826</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>4.28654268958137</v>
+        <v>25.43001213011983</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>24.97878631661268</v>
+        <v>25.43001216170246</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>31.33549892590536</v>
+        <v>25.43001217273228</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>6.941902779846318</v>
+        <v>25.43001213862739</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>38.31601302820795</v>
+        <v>25.43001217258546</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>47.6584546484811</v>
+        <v>25.43001218273912</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>43.27238735228316</v>
+        <v>25.43001217898859</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>52.01024883988655</v>
+        <v>25.43001219212723</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>58.7083986584291</v>
+        <v>25.43001219549436</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>15.0001737938497</v>
+        <v>25.43001215056304</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>42.24957555519786</v>
+        <v>25.43001218381071</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>49.96717363831137</v>
+        <v>25.4300121930577</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>46.87611686490525</v>
+        <v>25.43001216309131</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>40.82218884038998</v>
+        <v>25.43001216073924</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>48.95156732613658</v>
+        <v>25.4300121742584</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>54.25540954410689</v>
+        <v>25.4300121783919</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>21.76139971063828</v>
+        <v>25.43001213286187</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>44.95737146488652</v>
+        <v>25.43001216754708</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>49.83378216504519</v>
+        <v>25.43001217639824</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>20.34957308401366</v>
+        <v>25.43001214782046</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>13.08556605259376</v>
+        <v>25.43001214689395</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>38.40973743325423</v>
+        <v>25.43001218075257</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>44.664601258372</v>
+        <v>25.43001219183612</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>16.80674333173753</v>
+        <v>25.4300121564808</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>52.64128394299141</v>
+        <v>25.43001219260707</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>61.54948687541051</v>
+        <v>25.43001220270391</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>59.85035739849344</v>
+        <v>25.43001219834366</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>67.84945180840946</v>
+        <v>25.43001221148178</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>74.87146691181057</v>
+        <v>25.43001221489897</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>26.98464528426707</v>
+        <v>25.43001216807733</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>59.62054365510382</v>
+        <v>25.43001220329468</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>66.33829139076769</v>
+        <v>25.43001221230628</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>50.33826609649869</v>
+        <v>25.43001216550715</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>43.653803857498</v>
+        <v>25.43001216292499</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>51.68805554650711</v>
+        <v>25.43001217627977</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>57.37168466043882</v>
+        <v>25.4300121804294</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>23.66001616148393</v>
+        <v>25.43001213497016</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>47.8909918211092</v>
+        <v>25.43001216970213</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>53.00316586204322</v>
+        <v>25.43001217850938</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>22.46749546677748</v>
+        <v>25.43001214975147</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>41.88964282950071</v>
+        <v>25.43001217933724</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>49.06417390418012</v>
+        <v>25.43001218969659</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>16.3464675736048</v>
+        <v>25.43001214935077</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>42.52632741232485</v>
+        <v>25.43001218321903</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>49.0917448798569</v>
+        <v>25.43001219427955</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>20.29578732305753</v>
+        <v>25.43001215892477</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>56.81960736050303</v>
+        <v>25.43001219501946</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>65.99294405268526</v>
+        <v>25.43001220505769</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>63.88101944110389</v>
+        <v>25.43001220053683</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>71.7517149391538</v>
+        <v>25.43001221350897</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>79.12760185126125</v>
+        <v>25.43001221693226</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>29.86709836953215</v>
+        <v>25.43001217015721</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>63.63611792074796</v>
+        <v>25.43001220544988</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>70.55590916611334</v>
+        <v>25.43001221438568</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>26.41597970219319</v>
+        <v>25.43001215380045</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>21.12744090906374</v>
+        <v>25.43001215119924</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>29.54579810612548</v>
+        <v>25.43001216454006</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>34.82343310689527</v>
+        <v>25.43001216867553</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>3.410443184209513</v>
+        <v>25.43001212435967</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>25.04135887291616</v>
+        <v>25.43001215807011</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>30.22100559117539</v>
+        <v>25.43001216712916</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>2.335263451714144</v>
+        <v>25.43001213988674</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>20.21913455377311</v>
+        <v>25.4300121684183</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>27.33269605789024</v>
+        <v>25.43001217892933</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>-7.29844214233382</v>
+        <v>25.43001213912402</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>16.71157743690194</v>
+        <v>25.43001217161027</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>23.01288059576365</v>
+        <v>25.43001218284714</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>-4.584722191080531</v>
+        <v>25.43001214784368</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>30.05572112423529</v>
+        <v>25.43001218257819</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>39.20233911215585</v>
+        <v>25.43001219281787</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>38.05410840971163</v>
+        <v>25.43001218835898</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>46.40927323628025</v>
+        <v>25.43001220133392</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>53.3971765107591</v>
+        <v>25.43001220478495</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>6.67776683503943</v>
+        <v>25.4300121589815</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>37.72550574504876</v>
+        <v>25.43001219333019</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>44.77356018169728</v>
+        <v>25.4300122025745</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/plate_1/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.126</v>
+        <v>0.643</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.54</v>
+        <v>14.914</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.263</v>
+        <v>0.657</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.497</v>
+        <v>17.468</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.035</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.158</v>
+        <v>4.038</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>25.43001206797932</v>
+        <v>16.28478062328034</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25.43001209559693</v>
+        <v>18.98357048010763</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>25.43001210601557</v>
+        <v>30.98072234617798</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.43001206708614</v>
+        <v>1.82115823588752</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.43001209995811</v>
+        <v>22.04483677343044</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.43001211056292</v>
+        <v>26.34172076691626</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.43001207193805</v>
+        <v>9.985540798929645</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.4300121068285</v>
+        <v>34.59589640614375</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>25.43001211666803</v>
+        <v>41.54712325925398</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25.43001211863204</v>
+        <v>20.149473580241</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25.43001213072408</v>
+        <v>23.89721530212023</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>25.43001213466859</v>
+        <v>22.72024510275322</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>25.43001209141405</v>
+        <v>12.09518388940364</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25.43001212369429</v>
+        <v>14.62870659988618</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25.43001213366071</v>
+        <v>34.87172530032066</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25.43001209954184</v>
+        <v>13.58530980686697</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.43001213115922</v>
+        <v>25.19580746792887</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.43001214363054</v>
+        <v>32.60732091531133</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.43001209704805</v>
+        <v>2.19957305568364</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25.43001213220032</v>
+        <v>10.33894853184925</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>25.43001214574891</v>
+        <v>15.04187987331225</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>25.43001210459776</v>
+        <v>2.611546340479176</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.43001214317422</v>
+        <v>16.80445716272089</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>25.43001208080254</v>
+        <v>19.76197679713068</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25.43001211021629</v>
+        <v>27.63524788818069</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.43001212057917</v>
+        <v>29.44371211760894</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>25.43001208171857</v>
+        <v>0.9851900057872633</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25.43001211688692</v>
+        <v>33.52891344633058</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>25.43001212757487</v>
+        <v>33.39003666138797</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>25.43001208758345</v>
+        <v>7.271178912072447</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>25.43001212471875</v>
+        <v>46.37369477009095</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>25.43001213449422</v>
+        <v>46.99046664318037</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.43001213628706</v>
+        <v>48.1001067728828</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.43001214850129</v>
+        <v>51.09857269626994</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>25.43001215255292</v>
+        <v>50.67965985167912</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.4300121069183</v>
+        <v>20.64387505998719</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25.43001214140081</v>
+        <v>42.52093372611418</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>25.43001215115218</v>
+        <v>52.90718977503718</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>25.43001211639852</v>
+        <v>17.75016646536353</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.43001215002552</v>
+        <v>33.66664394883759</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25.43001216256051</v>
+        <v>35.65759439700035</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25.43001211579951</v>
+        <v>3.483415208190006</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.43001215349627</v>
+        <v>29.64982190407872</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>25.43001216723501</v>
+        <v>34.39194122462635</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.43001212468931</v>
+        <v>3.479860527650995</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>25.43001216579471</v>
+        <v>46.05142915565354</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.43001208285748</v>
+        <v>9.790479989272338</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.43001211226966</v>
+        <v>22.00211346297473</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>25.43001212254253</v>
+        <v>26.48578243448057</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>25.43001208436555</v>
+        <v>0.01698226028260663</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.43001211952221</v>
+        <v>32.49641676124102</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.43001213018872</v>
+        <v>35.90295479315857</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>25.43001209024617</v>
+        <v>6.799608609395822</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.43001212734899</v>
+        <v>47.92532810303301</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>25.43001213705808</v>
+        <v>51.18975795958252</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>25.43001213869416</v>
+        <v>51.93026954545229</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>25.43001215078</v>
+        <v>51.8278012120428</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>25.43001215484518</v>
+        <v>54.00466955912252</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>25.43001210913732</v>
+        <v>8.745832359971001</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.43001214376145</v>
+        <v>32.41615170879004</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.43001215343365</v>
+        <v>46.31735919956515</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>25.43001211888852</v>
+        <v>10.11881970182658</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>25.43001215249044</v>
+        <v>29.83211362945166</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.43001216497626</v>
+        <v>33.40819852842834</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.43001211885946</v>
+        <v>2.133856266786164</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.43001215654324</v>
+        <v>24.68868306423571</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>25.43001217029878</v>
+        <v>37.48141156781024</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>25.43001212779076</v>
+        <v>4.496523980269711</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.43001216885436</v>
+        <v>43.5824031803177</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>25.43001207390352</v>
+        <v>4.328406890664571</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>25.43001210218029</v>
+        <v>14.73776896587747</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.43001211258857</v>
+        <v>21.84835544247757</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>25.43001207489783</v>
+        <v>-0.1435336886796001</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>25.43001210856521</v>
+        <v>29.29679142239614</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.43001211940063</v>
+        <v>36.6584886978315</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.4300120799779</v>
+        <v>1.106651183526363</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>25.43001211561807</v>
+        <v>43.76592182445198</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>25.43001212552849</v>
+        <v>49.9794142070147</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>25.43001212703495</v>
+        <v>38.52934099024472</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>25.43001213905696</v>
+        <v>41.03216685950973</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>25.43001214311488</v>
+        <v>42.00950254200431</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>25.43001209868521</v>
+        <v>2.000597186555634</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.43001213220717</v>
+        <v>26.25822330497926</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.43001214216956</v>
+        <v>44.44443319343662</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.43001210751245</v>
+        <v>6.419233963698868</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.43001213983413</v>
+        <v>26.75399923974693</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.43001215246069</v>
+        <v>35.24449130341935</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>25.43001210694193</v>
+        <v>2.71352237021517</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.43001214302346</v>
+        <v>23.91804823469795</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.43001215694218</v>
+        <v>38.33051493563345</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>25.43001211482414</v>
+        <v>1.718936848387767</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.43001215425322</v>
+        <v>37.49457286128701</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>25.43001215565345</v>
+        <v>22.62334888460904</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>25.43001215265694</v>
+        <v>17.93094511481021</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>25.4300121690079</v>
+        <v>31.43761680187501</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>25.43001217379862</v>
+        <v>35.88559312136698</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>25.43001212162409</v>
+        <v>3.942580446372457</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>25.43001216059235</v>
+        <v>13.34830392248538</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>25.43001217116422</v>
+        <v>21.33749110403194</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>25.43001213832884</v>
+        <v>10.4677569290725</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>25.43001217129961</v>
+        <v>20.34447366054605</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>25.43001218391935</v>
+        <v>32.98810901794727</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.43001213611383</v>
+        <v>2.141903332387525</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.43001217317307</v>
+        <v>9.372687098015884</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>25.43001218656878</v>
+        <v>13.6541562170962</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>25.43001214592364</v>
+        <v>2.181478731989682</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>25.43001218605583</v>
+        <v>17.44688693998217</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>25.43001219839827</v>
+        <v>35.29769897415424</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>25.43001219316688</v>
+        <v>21.21060376773927</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>25.43001220905681</v>
+        <v>42.82142438570843</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>25.43001221303359</v>
+        <v>47.68016546763586</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>25.43001215950676</v>
+        <v>3.536738841583922</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>25.43001219885482</v>
+        <v>17.37525326410191</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>25.43001220989814</v>
+        <v>26.02732830433073</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>25.43001217834075</v>
+        <v>54.21592420777921</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>25.43001217459618</v>
+        <v>53.30220367270888</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>25.43001219100026</v>
+        <v>61.54444302371982</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>25.4300121959004</v>
+        <v>61.30520439680696</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.43001214136173</v>
+        <v>19.70954923007188</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>25.43001218274979</v>
+        <v>55.69294104521924</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>25.43001219317103</v>
+        <v>59.84437332268348</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>25.43001215720403</v>
+        <v>20.86957449161943</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>25.43001219225747</v>
+        <v>36.9577491917844</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.43001220485003</v>
+        <v>43.05085195726961</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>25.43001215689347</v>
+        <v>4.639939397112624</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>25.43001219664017</v>
+        <v>40.73991342600561</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>25.4300122101389</v>
+        <v>43.67603374413356</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>25.43001216807869</v>
+        <v>6.557395970316133</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>25.43001221083125</v>
+        <v>62.16223526422378</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>25.43001222310508</v>
+        <v>66.23617737808407</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>25.43001221708826</v>
+        <v>77.95897195042544</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>25.43001223298371</v>
+        <v>82.32845511239263</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.4300122370143</v>
+        <v>84.48177911117544</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>25.43001218120712</v>
+        <v>31.03796489126615</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>25.43001222294005</v>
+        <v>73.93225815336929</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>25.43001223371287</v>
+        <v>77.26457331593322</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>25.43001218136703</v>
+        <v>58.88286338962978</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>25.43001217732674</v>
+        <v>44.59757003822553</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>25.43001219353647</v>
+        <v>51.18736035641332</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.43001219845558</v>
+        <v>58.71247736167822</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.43001214399769</v>
+        <v>8.68340682951435</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>25.43001218545547</v>
+        <v>49.89473152883954</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>25.4300121958297</v>
+        <v>57.51999656612703</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.43001215961888</v>
+        <v>12.68422341325475</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>25.43001219467008</v>
+        <v>34.04760697370625</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>25.43001220718456</v>
+        <v>41.71396965763469</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.43001215993099</v>
+        <v>3.022090267223046</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>25.43001219970161</v>
+        <v>37.38750424283181</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>25.43001221317552</v>
+        <v>46.77984846684588</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.43001217112209</v>
+        <v>6.55816763457133</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>25.43001221385296</v>
+        <v>61.39722629674685</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>25.43001222605555</v>
+        <v>71.28665424440446</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>25.43001221982521</v>
+        <v>76.91984648528542</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>25.43001223552501</v>
+        <v>78.86393757398078</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.43001223956111</v>
+        <v>87.43340038331418</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>25.43001218380781</v>
+        <v>12.99458362586018</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>25.43001222563992</v>
+        <v>67.4228401851892</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>25.43001223632628</v>
+        <v>79.83531479675416</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.43001216695087</v>
+        <v>57.73852059855818</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.43001216285084</v>
+        <v>25.62514178432343</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.43001217904438</v>
+        <v>33.12321924534723</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>25.43001218396842</v>
+        <v>44.71274903815846</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.43001213090518</v>
+        <v>5.24829962306573</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>25.4300121711168</v>
+        <v>46.76828680164301</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>25.43001218179496</v>
+        <v>57.7329006329267</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>25.43001214748899</v>
+        <v>8.270491639299106</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>25.43001218126243</v>
+        <v>32.7681406837046</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>25.43001219398061</v>
+        <v>45.18382903247159</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>25.43001214732052</v>
+        <v>3.34933744439935</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>25.43001218545461</v>
+        <v>34.31241365210742</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.43001219913835</v>
+        <v>49.00884978924221</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>25.4300121574518</v>
+        <v>1.636574912700194</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>25.43001219853315</v>
+        <v>52.12576530901772</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>25.43001221100011</v>
+        <v>71.9538041310126</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>25.43001220482888</v>
+        <v>60.25772739149222</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>25.43001222054202</v>
+        <v>69.56237662442872</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>25.43001222462107</v>
+        <v>87.56620379894598</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>25.43001217003768</v>
+        <v>6.528582789653239</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>25.4300122107186</v>
+        <v>57.69951893247212</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>25.43001222178336</v>
+        <v>77.25797531936333</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>25.4300120557715</v>
+        <v>14.02525076832032</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>25.43001208239577</v>
+        <v>18.66845792141484</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>25.43001209225397</v>
+        <v>32.20227740029796</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>25.43001205380031</v>
+        <v>1.224107461985479</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>25.4300120855129</v>
+        <v>24.16672509269726</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.43001209556033</v>
+        <v>28.27984504760536</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>25.43001205810846</v>
+        <v>7.802907055313835</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>25.43001209163128</v>
+        <v>42.94367307509667</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>25.4300121009011</v>
+        <v>48.05644787041156</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.43001210409594</v>
+        <v>26.42028103112251</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.43001211541952</v>
+        <v>35.33352499173054</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.43001211928246</v>
+        <v>35.03687009215355</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>25.43001207793748</v>
+        <v>18.85941391411169</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>25.43001210910125</v>
+        <v>19.9853460236761</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>25.43001211867756</v>
+        <v>45.3853697478804</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>25.43001208824237</v>
+        <v>12.52068292310537</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.43001211887517</v>
+        <v>26.08004576130002</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>25.43001213082119</v>
+        <v>30.70421818338896</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>25.43001208463566</v>
+        <v>-2.420685547707681</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>25.43001211901064</v>
+        <v>10.90083104172751</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.43001213191088</v>
+        <v>14.83989576243388</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>25.43001209215307</v>
+        <v>0.510836719800988</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.43001212950906</v>
+        <v>28.12740409771014</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>25.43001206703183</v>
+        <v>17.21527545522786</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.43001209536124</v>
+        <v>24.08723334100156</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>25.43001210518753</v>
+        <v>31.16780000956195</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>25.43001206673157</v>
+        <v>1.529103395146574</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>25.43001210066138</v>
+        <v>35.22585494924009</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>25.4300121107819</v>
+        <v>35.03262977622335</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>25.43001207190905</v>
+        <v>7.807816663792483</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>25.43001210754933</v>
+        <v>51.06663496123718</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.43001211678038</v>
+        <v>52.63410474805325</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>25.43001211980548</v>
+        <v>50.32486075114731</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.43001213123892</v>
+        <v>56.10092826132524</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>25.430012135226</v>
+        <v>55.41711401287402</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>25.43001209160631</v>
+        <v>23.84108273752826</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>25.43001212487452</v>
+        <v>44.62470985204359</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>25.43001213426384</v>
+        <v>55.34099371999412</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>25.43001210353584</v>
+        <v>17.55361637014585</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>25.43001213607658</v>
+        <v>33.23109813108924</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.43001214811661</v>
+        <v>35.15803833084583</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.430012101705</v>
+        <v>-0.349415646443763</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.43001213856395</v>
+        <v>32.83213107222413</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>25.43001215161786</v>
+        <v>34.16242945721915</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>25.43001211041659</v>
+        <v>2.375958399533626</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>25.43001215016628</v>
+        <v>51.92799928967986</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.43001206889919</v>
+        <v>5.490960161199663</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.43001209720921</v>
+        <v>17.37747176909064</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.43001210695972</v>
+        <v>27.13204555843727</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.43001206918169</v>
+        <v>-0.7218698767531215</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>25.43001210308379</v>
+        <v>32.99796712956018</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.43001211318955</v>
+        <v>35.3221067411251</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>25.4300120743521</v>
+        <v>6.434728274874313</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.43001210993998</v>
+        <v>49.8062892047114</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>25.43001211911681</v>
+        <v>55.2126876847564</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>25.43001212201019</v>
+        <v>54.47509017661071</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>25.43001213331873</v>
+        <v>57.18154956431</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>25.43001213732577</v>
+        <v>62.21602892104279</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>25.43001209363754</v>
+        <v>9.655743021012011</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.43001212702366</v>
+        <v>34.3349987375876</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>25.43001213633885</v>
+        <v>46.23332188744813</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>25.43001210579359</v>
+        <v>8.85607322736006</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.43001213828998</v>
+        <v>29.30857440685381</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>25.43001215029383</v>
+        <v>32.66453107498307</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>25.43001210452697</v>
+        <v>-1.619208962546782</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.43001214135334</v>
+        <v>26.94780505998659</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>25.43001215442927</v>
+        <v>35.77620684070082</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>25.43001211324911</v>
+        <v>2.908769806463479</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>25.43001215293485</v>
+        <v>46.70342654336957</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>25.43001206085421</v>
+        <v>2.547140778360781</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>25.43001208807546</v>
+        <v>13.22454214125991</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.43001209794043</v>
+        <v>26.59716750370431</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>25.43001206069783</v>
+        <v>-0.6526456694554561</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>25.43001209315424</v>
+        <v>32.24436868312539</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>25.43001210341459</v>
+        <v>38.12244027136953</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>25.43001206514564</v>
+        <v>1.001989983360826</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.43001209934123</v>
+        <v>46.30274864213898</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>25.43001210868782</v>
+        <v>55.24657940622353</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>25.43001211151073</v>
+        <v>47.09923469291189</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>25.43001212274611</v>
+        <v>54.61431591369605</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>25.43001212672358</v>
+        <v>58.33582470542962</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.43001208427514</v>
+        <v>5.74639375591924</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>25.43001211658987</v>
+        <v>30.72318454346263</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>25.43001212616088</v>
+        <v>50.26666545601903</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>25.43001209523924</v>
+        <v>6.036093432434125</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.43001212651528</v>
+        <v>25.85907898308939</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>25.43001213861499</v>
+        <v>31.77020981829538</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>25.43001209350848</v>
+        <v>-2.221991742253156</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>25.43001212876134</v>
+        <v>23.80445511512388</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.43001214199388</v>
+        <v>31.65166672614393</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>25.43001210126029</v>
+        <v>-0.6762339369791768</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.43001213939348</v>
+        <v>38.52827202551441</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>25.43001214139124</v>
+        <v>29.9601626074877</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>25.43001213968029</v>
+        <v>22.01830271501435</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.43001215501504</v>
+        <v>39.1955780071364</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>25.43001215966589</v>
+        <v>38.72372012472063</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.43001210963921</v>
+        <v>9.408452206493816</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.43001214730727</v>
+        <v>18.99830892895777</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.4300121577445</v>
+        <v>29.70749032653296</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>25.43001212899642</v>
+        <v>11.61349265740507</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.43001216113849</v>
+        <v>24.78833356999781</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>25.43001217311761</v>
+        <v>37.5972428844366</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>25.43001212566687</v>
+        <v>-1.919569927178305</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>25.43001216207317</v>
+        <v>10.41489938522522</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>25.43001217474278</v>
+        <v>18.84413882233234</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>25.43001213570092</v>
+        <v>0.7695728953497216</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.43001217481397</v>
+        <v>29.0644570791561</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>25.43001218642544</v>
+        <v>47.42702646634605</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.43001218247814</v>
+        <v>26.49193428037155</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>25.43001219735788</v>
+        <v>46.34978452427221</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>25.43001220123189</v>
+        <v>53.85407501931782</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>25.43001214962743</v>
+        <v>7.85333851226407</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.4300121880441</v>
+        <v>26.10064282719231</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.43001219863919</v>
+        <v>40.13347406121973</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.43001216213616</v>
+        <v>56.49044654129135</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>25.43001215972366</v>
+        <v>54.26701987155717</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>25.43001217509854</v>
+        <v>61.47485972224725</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.43001217987612</v>
+        <v>58.60495486088169</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.43001212758879</v>
+        <v>22.2544070931508</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>25.43001216754949</v>
+        <v>56.78320013299158</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.4300121778575</v>
+        <v>59.73209225036076</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>25.43001214632903</v>
+        <v>20.93449725195316</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.43001218045026</v>
+        <v>36.72215046234253</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>25.43001219242883</v>
+        <v>43.4569545021255</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>25.43001214481579</v>
+        <v>0.5185098784755802</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>25.43001218384352</v>
+        <v>42.68375203771633</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.43001219658493</v>
+        <v>44.03680234213594</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>25.4300121560818</v>
+        <v>5.050609461279702</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>25.43001219767612</v>
+        <v>64.79134647811564</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>25.43001220923946</v>
+        <v>68.71392182943408</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>25.43001220459846</v>
+        <v>74.68720214227072</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>25.43001221947534</v>
+        <v>78.14456755599856</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>25.43001222341368</v>
+        <v>81.78927892599729</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>25.43001216961031</v>
+        <v>30.53025066394444</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>25.43001221029878</v>
+        <v>76.91441757398881</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>25.43001222063996</v>
+        <v>77.91746053681977</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>25.430012164881</v>
+        <v>58.48672278536745</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.43001216220687</v>
+        <v>47.57518203608653</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>25.43001217739761</v>
+        <v>51.39474923329598</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>25.43001218219501</v>
+        <v>57.87570034019033</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>25.4300121299871</v>
+        <v>8.862236412592917</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>25.4300121699965</v>
+        <v>49.74263418959781</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>25.43001218025781</v>
+        <v>56.03900529743217</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.43001214851519</v>
+        <v>11.26085098916448</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>25.43001218261406</v>
+        <v>33.57963717289886</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>25.43001219452658</v>
+        <v>41.86072073074784</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>25.43001214761702</v>
+        <v>-1.564851496329926</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>25.43001218664851</v>
+        <v>38.55396976822335</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>25.43001219937027</v>
+        <v>45.13750857011756</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>25.43001215885972</v>
+        <v>4.774851646754495</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>25.43001220041013</v>
+        <v>62.39656532645954</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>25.43001221191209</v>
+        <v>72.09355211229486</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>25.43001220709155</v>
+        <v>72.75554941627816</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>25.43001222178212</v>
+        <v>77.08734919872545</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.43001222572869</v>
+        <v>86.56691414033297</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>25.43001217197619</v>
+        <v>11.15891057040092</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>25.43001221274951</v>
+        <v>72.49457701261015</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>25.4300122230045</v>
+        <v>78.99214078904971</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.43001215147816</v>
+        <v>52.87152118377966</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>25.43001214879776</v>
+        <v>28.10432469155897</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>25.43001216397204</v>
+        <v>35.20920993263101</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>25.43001216874454</v>
+        <v>40.38983294199929</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>25.4300121178802</v>
+        <v>5.8635445084611</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>25.43001215669654</v>
+        <v>42.45083430060967</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>25.4300121672241</v>
+        <v>50.9609631968852</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.43001213721629</v>
+        <v>6.601578894002326</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>25.4300121701039</v>
+        <v>32.77322231004125</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.43001218217324</v>
+        <v>44.06385906997436</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>25.43001213590783</v>
+        <v>-1.294716149350126</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>25.43001217334339</v>
+        <v>36.90648718792043</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>25.43001218625648</v>
+        <v>45.9808202452045</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.43001214616829</v>
+        <v>0.6276856594798339</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>25.43001218615963</v>
+        <v>57.42312359109967</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>25.43001219787578</v>
+        <v>72.45633231030529</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>25.43001219313532</v>
+        <v>61.44456639574481</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>25.43001220782906</v>
+        <v>74.42858304046219</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>25.43001221180252</v>
+        <v>85.80099387624689</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>25.43001215919397</v>
+        <v>7.0985501456836</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>25.43001219887347</v>
+        <v>67.88373992337476</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.43001220946066</v>
+        <v>80.4670935896058</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>25.43001205311982</v>
+        <v>7.228067730956635</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.43001207992534</v>
+        <v>9.576268086160919</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>25.43001208979014</v>
+        <v>20.78026815993662</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>25.43001205097723</v>
+        <v>-0.9596474288997321</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>25.43001208286216</v>
+        <v>10.71275967934173</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>25.43001209294381</v>
+        <v>13.87719891385624</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>25.4300120552172</v>
+        <v>3.584820298629221</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.43001208893502</v>
+        <v>25.3027517654408</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>25.43001209824926</v>
+        <v>29.4696061819519</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>25.43001210167718</v>
+        <v>12.65838991996024</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.43001211308568</v>
+        <v>22.41387087404216</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>25.43001211701302</v>
+        <v>22.74543636321742</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>25.4300120753404</v>
+        <v>11.44457507686799</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.43001210675518</v>
+        <v>8.441997202903732</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.43001211635346</v>
+        <v>26.892120821765</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>25.4300120879651</v>
+        <v>12.71596761770057</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.43001211892946</v>
+        <v>26.81965502199327</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>25.43001213087103</v>
+        <v>31.61108507722423</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>25.43001208429391</v>
+        <v>-2.496336768615979</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>25.4300121190317</v>
+        <v>10.38870627594568</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>25.43001213195233</v>
+        <v>15.77312178922102</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.4300120919288</v>
+        <v>0.6584940172808835</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.43001212966711</v>
+        <v>30.23985513423053</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>25.43001206443991</v>
+        <v>10.63210499204905</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>25.4300120929681</v>
+        <v>15.63808397944839</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.43001210279732</v>
+        <v>21.11351215931321</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>25.43001206397681</v>
+        <v>-0.2903231352663234</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.43001209810333</v>
+        <v>24.16877975036015</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.43001210825436</v>
+        <v>24.21588456038459</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>25.43001206908314</v>
+        <v>4.208719745803332</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.43001210493803</v>
+        <v>36.11237366968092</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>25.43001211420809</v>
+        <v>36.95801774525762</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>25.4300121174651</v>
+        <v>35.9092581719792</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.43001212898425</v>
+        <v>43.10463399166717</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>25.43001213303949</v>
+        <v>43.70912391993086</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>25.43001208907223</v>
+        <v>15.62677535104603</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>25.43001212261072</v>
+        <v>31.46213248964471</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>25.43001213201858</v>
+        <v>38.06548256773176</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.43001210340311</v>
+        <v>17.23912374847236</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>25.43001213630431</v>
+        <v>33.9656941703918</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.43001214833432</v>
+        <v>35.98802052084687</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>25.43001210151885</v>
+        <v>-1.147735815108124</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.43001213877506</v>
+        <v>34.20109314452748</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.43001215184404</v>
+        <v>36.73396121308591</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>25.43001211034922</v>
+        <v>1.683321089109608</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.43001215051153</v>
+        <v>55.00124233241371</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>25.43001206635954</v>
+        <v>2.509593982819109</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.43001209486747</v>
+        <v>11.20620727516579</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>25.43001210462106</v>
+        <v>19.38432767244881</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>25.43001206648357</v>
+        <v>-1.374231845135295</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.43001210058257</v>
+        <v>22.38480609914219</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>25.43001211071875</v>
+        <v>24.15738758335021</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>25.43001207158463</v>
+        <v>5.857044140629323</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>25.43001210738662</v>
+        <v>37.43130746903782</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>25.43001211660176</v>
+        <v>41.67693999994461</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>25.43001211972603</v>
+        <v>41.70948310656796</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>25.43001213111766</v>
+        <v>45.27749017577555</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>25.4300121351944</v>
+        <v>51.88603542716379</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>25.43001209115941</v>
+        <v>6.00294847751638</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.43001212481348</v>
+        <v>23.60746205612498</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>25.43001213414807</v>
+        <v>31.44486732077133</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>25.43001210569748</v>
+        <v>11.13278614639958</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.43001213855392</v>
+        <v>32.83555177062667</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>25.43001215054767</v>
+        <v>35.45520105818743</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.43001210438117</v>
+        <v>-1.278176197787577</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.43001214160542</v>
+        <v>30.32661386702602</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>25.43001215469516</v>
+        <v>38.10393509511471</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.43001211322186</v>
+        <v>4.818572902068322</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>25.43001215331981</v>
+        <v>53.2458996447841</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.43001205829855</v>
+        <v>0.517462613937294</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>25.4300120857045</v>
+        <v>7.066265411139884</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>25.43001209557688</v>
+        <v>19.78056500284967</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>25.43001205798727</v>
+        <v>-1.394779882617147</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>25.43001209062156</v>
+        <v>19.43659342532291</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.43001210092003</v>
+        <v>26.66462739481331</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.43001206236957</v>
+        <v>-0.1390894897850536</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>25.43001209676489</v>
+        <v>30.88705411197662</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>25.43001210615574</v>
+        <v>40.5236345151698</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>25.4300121092153</v>
+        <v>33.57640707760133</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.43001212053029</v>
+        <v>40.84680013288043</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>25.43001212457612</v>
+        <v>47.41337445917</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.4300120817924</v>
+        <v>3.185761649409013</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>25.43001211436071</v>
+        <v>20.02376570557348</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.43001212395941</v>
+        <v>35.17882297913718</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>25.43001209505668</v>
+        <v>8.010738479088953</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.43001212667301</v>
+        <v>29.43118961861067</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>25.43001213876889</v>
+        <v>34.241416717354</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>25.43001209328075</v>
+        <v>-1.765925052089617</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.43001212890852</v>
+        <v>26.590590936883</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.43001214216222</v>
+        <v>33.78128920334481</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.4300121011479</v>
+        <v>0.1957223971323252</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>25.43001213967226</v>
+        <v>43.53994905554846</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.43001214158549</v>
+        <v>32.239495061391</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.4300121399386</v>
+        <v>24.46508185843542</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>25.43001215538473</v>
+        <v>41.98794797794807</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>25.4300121600666</v>
+        <v>41.26863162613076</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>25.43001210951977</v>
+        <v>10.23030811337672</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.43001214759622</v>
+        <v>23.25736216596468</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>25.43001215807412</v>
+        <v>33.09837649896183</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>25.4300121289298</v>
+        <v>13.90540652673479</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.43001216141516</v>
+        <v>27.07726682102611</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.43001217338066</v>
+        <v>40.45024447022324</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>25.4300121254904</v>
+        <v>-3.402310049700294</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.4300121622905</v>
+        <v>9.763490403163654</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>25.43001217494684</v>
+        <v>15.87895772626699</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>25.43001213563807</v>
+        <v>-0.6366001592102073</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>25.43001217515063</v>
+        <v>30.70758852973524</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>25.43001218677574</v>
+        <v>47.15639914704916</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>25.43001218286482</v>
+        <v>29.45925703782494</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>25.43001219785895</v>
+        <v>49.89502487551682</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>25.43001220175764</v>
+        <v>54.43419190898079</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>25.43001214962261</v>
+        <v>7.096560999431244</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>25.43001218845909</v>
+        <v>28.87741014799873</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>25.43001219905808</v>
+        <v>40.41986619341917</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.43001216250895</v>
+        <v>58.88179032020842</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>25.43001216015168</v>
+        <v>56.76097739718381</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>25.43001217563859</v>
+        <v>63.56314405868179</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>25.43001218044634</v>
+        <v>61.04672416994016</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>25.43001212761925</v>
+        <v>21.65992201122137</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>25.43001216801278</v>
+        <v>59.58621861451141</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>25.43001217835413</v>
+        <v>62.43612286992062</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>25.43001214642173</v>
+        <v>21.93378004604103</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>25.43001218091505</v>
+        <v>38.55178552126368</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>25.43001219287319</v>
+        <v>46.73675529256451</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>25.43001214481075</v>
+        <v>-0.1781514874461188</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>25.43001218426932</v>
+        <v>46.72720804552947</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>25.43001219698991</v>
+        <v>46.65990749443556</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>25.4300121561915</v>
+        <v>4.002966409543159</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.43001219821629</v>
+        <v>69.78779218309039</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>25.43001220978482</v>
+        <v>72.08048423721165</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>25.43001220516785</v>
+        <v>79.65913898847454</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>25.43001222015998</v>
+        <v>83.53037866436462</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>25.43001222412301</v>
+        <v>83.95604636220735</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.43001216976864</v>
+        <v>30.47310466224654</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>25.43001221090298</v>
+        <v>81.85833984926221</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>25.43001222124358</v>
+        <v>82.3947964274263</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>25.43001216529165</v>
+        <v>63.40227403146554</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.43001216267266</v>
+        <v>53.3650096222303</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>25.43001217797282</v>
+        <v>57.75849303988259</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>25.43001218279998</v>
+        <v>62.8434732675323</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>25.43001213005548</v>
+        <v>12.58609463829215</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>25.43001217049569</v>
+        <v>56.61016671227472</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>25.43001218078918</v>
+        <v>61.75434261612806</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.4300121486434</v>
+        <v>13.73470144536806</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>25.4300121831144</v>
+        <v>36.7589026539532</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>25.43001219500591</v>
+        <v>46.00180421846166</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.43001214765242</v>
+        <v>-1.715698200546957</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.4300121871161</v>
+        <v>43.63634130709166</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>25.43001219981575</v>
+        <v>47.28559115405558</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>25.4300121590094</v>
+        <v>5.685661211162721</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>25.43001220099016</v>
+        <v>70.18099247868032</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>25.43001221249568</v>
+        <v>77.35846289483955</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>25.43001220769761</v>
+        <v>80.47047844805145</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>25.43001222250091</v>
+        <v>85.33027562029012</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>25.43001222647228</v>
+        <v>89.87167001634991</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>25.43001217217091</v>
+        <v>14.10448866398009</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>25.43001221338942</v>
+        <v>80.91827602234828</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.43001222364367</v>
+        <v>85.77831276363251</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.43001215179045</v>
+        <v>56.38600283922663</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>25.43001214917653</v>
+        <v>34.61816590066083</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.43001216445754</v>
+        <v>41.53731355119122</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.4300121692598</v>
+        <v>46.68386885396724</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>25.43001211786883</v>
+        <v>9.172531569524789</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>25.43001215710073</v>
+        <v>48.8560754663653</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>25.43001216766942</v>
+        <v>54.51010810154007</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.43001213724693</v>
+        <v>8.570979755165435</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>25.43001217048823</v>
+        <v>35.2834231409696</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>25.43001218254354</v>
+        <v>47.07721667372037</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>25.43001213585135</v>
+        <v>-1.509224402758452</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>25.43001217369495</v>
+        <v>40.4955767928803</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>25.43001218659485</v>
+        <v>46.89413169366877</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>25.43001214622343</v>
+        <v>0.8691835642569679</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>25.43001218662449</v>
+        <v>63.04820309456532</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.43001219835203</v>
+        <v>75.56293517161266</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>25.43001219364662</v>
+        <v>69.10537942529355</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>25.4300122084493</v>
+        <v>81.11757337757398</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>25.43001221244776</v>
+        <v>89.58051849150287</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.4300121593017</v>
+        <v>9.404733218965742</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>25.4300121994107</v>
+        <v>75.16517904958373</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>25.43001221000419</v>
+        <v>84.27152206473902</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>25.43001206394507</v>
+        <v>11.18266104803972</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>25.43001209055327</v>
+        <v>13.32768354732288</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>25.43001210062877</v>
+        <v>23.0847850175914</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.43001206266048</v>
+        <v>1.379919325382854</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>25.43001209432683</v>
+        <v>16.05883254509483</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>25.43001210460969</v>
+        <v>19.59153694544395</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.4300120669385</v>
+        <v>6.67506445703059</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>25.43001210059979</v>
+        <v>24.72737907359167</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.43001211011062</v>
+        <v>29.13624651410718</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.43001211252871</v>
+        <v>13.73445028037586</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.43001212420992</v>
+        <v>17.13909583654458</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>25.4300121280677</v>
+        <v>15.35832486777737</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>25.43001208646613</v>
+        <v>10.85270510744031</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.43001211757221</v>
+        <v>9.669432339612282</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>25.43001212724279</v>
+        <v>24.70593207067344</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>25.43001209457189</v>
+        <v>9.53355587533456</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.43001212499467</v>
+        <v>16.43971501589558</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>25.43001213708931</v>
+        <v>23.90784458436697</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>25.43001209180728</v>
+        <v>7.211054819804001</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>25.43001212565049</v>
+        <v>9.969852741982589</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.4300121387788</v>
+        <v>14.13926160582291</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.43001209867534</v>
+        <v>2.843764566521212</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.43001213586385</v>
+        <v>10.1026645239062</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.43001207614795</v>
+        <v>16.26621610832081</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.43001210448926</v>
+        <v>22.52702810327939</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.43001211451555</v>
+        <v>24.74446936353569</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>25.43001207659049</v>
+        <v>1.518438817439449</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.43001211047118</v>
+        <v>27.0308680005183</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.43001212084239</v>
+        <v>28.22188565124337</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>25.43001208183372</v>
+        <v>6.223403773828</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.43001211766083</v>
+        <v>37.15459515650602</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.43001212711557</v>
+        <v>37.52807856494735</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>25.43001212937849</v>
+        <v>38.17582626756099</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>25.43001214118124</v>
+        <v>41.41752624613981</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.43001214514447</v>
+        <v>42.12890682765837</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>25.43001210124342</v>
+        <v>19.75473012671646</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.43001213447843</v>
+        <v>35.64606248740365</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.43001214394004</v>
+        <v>43.20329708501826</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>25.43001211064173</v>
+        <v>13.70556378798498</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.430012142999</v>
+        <v>21.45652319735422</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.43001215515901</v>
+        <v>25.23916595037177</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>25.43001210969189</v>
+        <v>6.460399345964785</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.43001214598368</v>
+        <v>21.59847664741335</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>25.43001215930041</v>
+        <v>27.25492166091804</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>25.43001215746409</v>
+        <v>31.15372066458186</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.43001207821138</v>
+        <v>10.72743225761247</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>25.43001210655251</v>
+        <v>21.40034330170387</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.43001211649246</v>
+        <v>25.77045487617534</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.43001207922941</v>
+        <v>1.902849248662495</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>25.43001211310112</v>
+        <v>28.33038253558387</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>25.43001212345148</v>
+        <v>32.21585116484228</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>25.43001208449267</v>
+        <v>8.873728868177647</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>25.43001212028999</v>
+        <v>42.48418791557495</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>25.43001212968076</v>
+        <v>44.74556963987689</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>25.43001213178439</v>
+        <v>43.12158620428926</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>25.43001214346318</v>
+        <v>42.62207870696808</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>25.43001214744076</v>
+        <v>46.55756551333108</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>25.4300121034665</v>
+        <v>13.01602140823908</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>25.43001213683879</v>
+        <v>30.7999180266395</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.43001214622412</v>
+        <v>41.15105492209452</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>25.43001211311156</v>
+        <v>10.23798798956635</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>25.43001214544626</v>
+        <v>22.17482095770832</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.4300121575574</v>
+        <v>25.45748277148681</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.4300121127138</v>
+        <v>6.944575971121179</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.4300121489947</v>
+        <v>20.24132049060567</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>25.43001216232569</v>
+        <v>30.81192325719199</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>25.43001212090721</v>
+        <v>5.109017618742396</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.4300121604922</v>
+        <v>32.64418478942551</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>25.43001206972289</v>
+        <v>5.165524254764907</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>25.43001209697072</v>
+        <v>13.86984343508289</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>25.43001210703761</v>
+        <v>19.66925906663912</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>25.43001207025769</v>
+        <v>1.279345352380201</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>25.43001210269562</v>
+        <v>24.17396667613459</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>25.43001211320115</v>
+        <v>31.16274319003328</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>25.43001207475979</v>
+        <v>0.8011310031174155</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>25.43001210914733</v>
+        <v>35.44149161687497</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.43001211872852</v>
+        <v>39.88812445894297</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.43001212069764</v>
+        <v>29.57743674696014</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>25.43001213231233</v>
+        <v>31.19149290073258</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>25.43001213628278</v>
+        <v>33.49727372980989</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>25.43001209354337</v>
+        <v>5.302257660547962</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>25.43001212585014</v>
+        <v>22.75571928057967</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.43001213551922</v>
+        <v>37.93246874176469</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.43001210228779</v>
+        <v>6.285293864841631</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.43001213339496</v>
+        <v>19.75149121250298</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.43001214563407</v>
+        <v>25.61268125966184</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>25.43001210137583</v>
+        <v>6.888465594682199</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>25.43001213611855</v>
+        <v>19.95536697429641</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.43001214959871</v>
+        <v>30.45152467082249</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.43001210856689</v>
+        <v>1.436219990706302</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.43001214658138</v>
+        <v>27.24763022504396</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>25.43001214798009</v>
+        <v>13.80634326429096</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>25.43001214556554</v>
+        <v>11.08844644938301</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.43001216138843</v>
+        <v>24.87363358208978</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.4300121660874</v>
+        <v>29.68896978370384</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>25.43001211583342</v>
+        <v>4.008676879054487</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>25.43001215333351</v>
+        <v>7.432315433832496</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.43001216362911</v>
+        <v>11.95155125280486</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>25.43001213359565</v>
+        <v>11.36780897978843</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>25.43001216536335</v>
+        <v>17.33589484958484</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.43001217762685</v>
+        <v>29.71227786621547</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>25.43001213108395</v>
+        <v>7.175671386367451</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>25.43001216680403</v>
+        <v>9.561698444492091</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>25.43001217982951</v>
+        <v>13.53280551055829</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>25.43001214028335</v>
+        <v>3.389486596692034</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>25.43001217904228</v>
+        <v>12.53165653030383</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.43001219104093</v>
+        <v>32.68936403335375</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>25.43001218639328</v>
+        <v>13.90057116050236</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>25.43001220179299</v>
+        <v>37.23885797449627</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.43001220570581</v>
+        <v>41.41858970317823</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>25.43001215400263</v>
+        <v>5.214524108512972</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.43001219193561</v>
+        <v>11.04238340125691</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>25.43001220271993</v>
+        <v>19.12134137673969</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>25.43001216965103</v>
+        <v>39.13052638178058</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>25.43001216653305</v>
+        <v>36.42667024160288</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>25.43001218241222</v>
+        <v>45.22138083697985</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>25.43001218722107</v>
+        <v>47.94585843903199</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.43001213468842</v>
+        <v>16.21360444030229</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>25.43001217451582</v>
+        <v>38.69208632663661</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>25.43001218466452</v>
+        <v>41.43938301613875</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>25.43001215171006</v>
+        <v>21.26993102181856</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.4300121854838</v>
+        <v>29.06977881086615</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>25.4300121977263</v>
+        <v>37.27554237138607</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>25.43001215102687</v>
+        <v>8.42246397791315</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.43001218933503</v>
+        <v>33.43671488809233</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>25.43001220246765</v>
+        <v>37.87424664687514</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.43001216154908</v>
+        <v>6.299311661910945</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>25.43001220283502</v>
+        <v>49.21894056555608</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>25.43001221477409</v>
+        <v>58.49178758775936</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>25.43001220939135</v>
+        <v>63.19713605222627</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>25.43001222480186</v>
+        <v>70.954527380877</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>25.43001222876887</v>
+        <v>75.15057040432684</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>25.43001217485759</v>
+        <v>30.85684126194225</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.430012215089</v>
+        <v>58.79088204349601</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.43001222561187</v>
+        <v>63.47744260063048</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.43001217264499</v>
+        <v>45.13748439719117</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>25.43001216923763</v>
+        <v>31.61299397119819</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>25.43001218492674</v>
+        <v>37.25434658835671</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>25.43001218975409</v>
+        <v>46.65900047049148</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>25.43001213729959</v>
+        <v>10.86677907999376</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>25.43001217719308</v>
+        <v>37.36541074457043</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.43001218729546</v>
+        <v>41.63531456046191</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.43001215410398</v>
+        <v>16.69056097341044</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.43001218787596</v>
+        <v>29.33651618464476</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>25.43001220004243</v>
+        <v>37.67050624466842</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.43001215402488</v>
+        <v>8.237224850062315</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.43001219235651</v>
+        <v>32.26775560856149</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>25.43001220546465</v>
+        <v>40.87658011320595</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>25.43001216455718</v>
+        <v>8.912397561343962</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>25.43001220582219</v>
+        <v>51.4502945382221</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.43001221769167</v>
+        <v>64.42538778495764</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>25.43001221210009</v>
+        <v>64.03282265061036</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>25.43001222731987</v>
+        <v>68.3078485075719</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>25.43001223129295</v>
+        <v>78.29045633234249</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>25.43001217743371</v>
+        <v>17.82586888054307</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>25.43001221775862</v>
+        <v>55.20348794222413</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>25.43001222819815</v>
+        <v>66.71020275843996</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>25.4300121589035</v>
+        <v>41.82654402500224</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>25.43001215542822</v>
+        <v>16.52106697415519</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>25.43001217109499</v>
+        <v>22.43238303112464</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>25.43001217592155</v>
+        <v>34.21669388284977</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>25.43001212481575</v>
+        <v>6.729062803459623</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>25.43001216351285</v>
+        <v>34.91319703788207</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>25.43001217391027</v>
+        <v>41.23720559557164</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>25.4300121424966</v>
+        <v>11.51073362247311</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>25.43001217504167</v>
+        <v>28.42989611941058</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>25.43001218739949</v>
+        <v>40.04419927138493</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>25.43001214196365</v>
+        <v>8.334502331512578</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.4300121787224</v>
+        <v>29.99224539077964</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>25.43001219202651</v>
+        <v>43.41810657151883</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>25.43001215147731</v>
+        <v>3.048554615322882</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.4300121911536</v>
+        <v>42.9995969671531</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>25.4300122032728</v>
+        <v>63.69517155273032</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>25.43001219772178</v>
+        <v>49.22822666726627</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>25.43001221294873</v>
+        <v>59.25656668317491</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>25.43001221696391</v>
+        <v>76.41444711760072</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>25.43001216424033</v>
+        <v>10.19629889091136</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.43001220345612</v>
+        <v>45.08265247885352</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>25.43001221426607</v>
+        <v>63.92909002918343</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>25.43001206832113</v>
+        <v>11.33569417809468</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.43001209503172</v>
+        <v>13.66188610143712</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>25.43001210507605</v>
+        <v>25.85611083020713</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.43001206737438</v>
+        <v>1.986059949813221</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>25.43001209918246</v>
+        <v>17.88552000770765</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.43001210942486</v>
+        <v>22.4403337307651</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>25.4300120718345</v>
+        <v>6.53441363648896</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>25.43001210560285</v>
+        <v>27.49256531956</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>25.43001211507138</v>
+        <v>32.73974475621419</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>25.43001211707702</v>
+        <v>14.45787406793208</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.43001212876835</v>
+        <v>20.03349893489326</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>25.43001213260461</v>
+        <v>17.80298847839311</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>25.43001209083662</v>
+        <v>11.73231715295287</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.43001212206018</v>
+        <v>9.760360291342689</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.43001213171532</v>
+        <v>27.63752651630571</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>25.43001209953085</v>
+        <v>13.11974949582446</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>25.4300121300835</v>
+        <v>22.32695655174119</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>25.43001214211336</v>
+        <v>30.34274448504487</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>25.43001209714406</v>
+        <v>7.706484636202571</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>25.43001213114516</v>
+        <v>14.57791190979365</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>25.43001214419223</v>
+        <v>18.80149919119166</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>25.43001210425394</v>
+        <v>3.337154741988765</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>25.43001214158294</v>
+        <v>18.81769312579851</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>25.43001208058225</v>
+        <v>16.63481640528397</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.43001210903214</v>
+        <v>23.155179207571</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.43001211901724</v>
+        <v>26.36716918303274</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>25.43001208136086</v>
+        <v>2.13363249876868</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>25.43001211539196</v>
+        <v>30.11543690374871</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>25.43001212570913</v>
+        <v>30.98514319546586</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>25.43001208678169</v>
+        <v>6.29783118902974</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>25.43001212272011</v>
+        <v>40.57895060262159</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>25.43001213212147</v>
+        <v>40.65842275171151</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>25.43001213396017</v>
+        <v>41.71263461601588</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>25.43001214577448</v>
+        <v>44.82087144965109</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.43001214971076</v>
+        <v>44.74546776875304</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>25.43001210564956</v>
+        <v>20.72099840349501</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>25.43001213900754</v>
+        <v>37.82205194356678</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>25.43001214844126</v>
+        <v>45.70740834986378</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>25.43001211566581</v>
+        <v>18.38711068987727</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.43001214816234</v>
+        <v>29.14782372261789</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.43001216024201</v>
+        <v>31.6715239176393</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>25.43001211508994</v>
+        <v>8.202888316244564</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>25.43001215155157</v>
+        <v>30.39671366911633</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>25.43001216476591</v>
+        <v>34.29944417094038</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>25.43001216324755</v>
+        <v>43.65688401941055</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>25.43001208260291</v>
+        <v>9.629212118149436</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.430012111054</v>
+        <v>21.12265761421812</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.43001212095121</v>
+        <v>27.1157839497288</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.43001208395402</v>
+        <v>1.73979505695333</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.43001211797682</v>
+        <v>30.69328168068003</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>25.4300121282713</v>
+        <v>34.68557136292627</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.43001208939252</v>
+        <v>7.874708751697089</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>25.43001212530222</v>
+        <v>45.04089297607966</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.43001213463738</v>
+        <v>47.58800386577664</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>25.43001213632002</v>
+        <v>47.01016561074533</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>25.4300121480108</v>
+        <v>46.63644829843867</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>25.43001215196072</v>
+        <v>49.9474622748301</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>25.43001210782814</v>
+        <v>12.13059495579175</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>25.43001214132411</v>
+        <v>31.87287323715725</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>25.43001215068015</v>
+        <v>42.86746639340794</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>25.43001211808343</v>
+        <v>13.64134282005973</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>25.43001215055837</v>
+        <v>29.55184725932076</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>25.4300121625876</v>
+        <v>31.74133014702785</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.4300121180551</v>
+        <v>8.311763683919548</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>25.43001215450607</v>
+        <v>29.1646033616936</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>25.43001216773241</v>
+        <v>38.19895083107529</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.43001212648328</v>
+        <v>6.78318291075372</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>25.43001216621647</v>
+        <v>45.6013843544097</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>25.43001207407956</v>
+        <v>4.222457063042004</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>25.43001210143465</v>
+        <v>13.87079728179952</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.43001211146514</v>
+        <v>22.36227472132602</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>25.43001207494897</v>
+        <v>1.848420074296353</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.43001210753193</v>
+        <v>26.9657847734736</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.43001211799147</v>
+        <v>35.33275324433072</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>25.4300120796313</v>
+        <v>0.6716168394181601</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>25.43001211413032</v>
+        <v>38.93230698360991</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.43001212366158</v>
+        <v>44.36260287296356</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.4300121252204</v>
+        <v>33.67418137321144</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.43001213684771</v>
+        <v>36.43525984226129</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.43001214079394</v>
+        <v>38.98849614921691</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.43001209788861</v>
+        <v>5.363144288240729</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.43001213031491</v>
+        <v>24.2606585774035</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>25.43001213996525</v>
+        <v>41.62269063637808</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>25.43001210720713</v>
+        <v>9.268687648227537</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.43001213844934</v>
+        <v>26.98603570270098</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.43001215061671</v>
+        <v>32.60186508996873</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.43001210666571</v>
+        <v>7.989416402640867</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>25.43001214156985</v>
+        <v>27.81710018415765</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>25.4300121549595</v>
+        <v>37.37473367026915</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.43001211409549</v>
+        <v>2.307558698914118</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>25.43001215225473</v>
+        <v>38.60132621295737</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>25.43001215362584</v>
+        <v>23.29552558044346</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.43001215080442</v>
+        <v>18.25855504321711</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>25.43001216666104</v>
+        <v>35.98220506760421</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>25.43001217132377</v>
+        <v>40.11775682226101</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.43001212083606</v>
+        <v>7.386684007705068</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.43001215847216</v>
+        <v>14.91511297800529</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>25.43001216870672</v>
+        <v>20.61166428084932</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.43001213714638</v>
+        <v>11.13552075035058</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.43001216899658</v>
+        <v>18.44323270103355</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.43001218123173</v>
+        <v>34.80357227878207</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.43001213502052</v>
+        <v>7.529833621877852</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.43001217083823</v>
+        <v>12.4856942966042</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.4300121838237</v>
+        <v>17.43553951856903</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>25.43001214433352</v>
+        <v>2.352949509822974</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>25.4300121831619</v>
+        <v>16.79382937843765</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>25.43001219513196</v>
+        <v>40.81302490041112</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>25.43001219009125</v>
+        <v>18.28327742328726</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>25.43001220554777</v>
+        <v>46.52200219845376</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>25.43001220942729</v>
+        <v>52.36504452502579</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>25.43001215754143</v>
+        <v>4.991071137600027</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>25.43001219558273</v>
+        <v>16.94930201971597</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>25.43001220633141</v>
+        <v>26.11105082932856</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>25.43001217534444</v>
+        <v>50.31991273775617</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>25.43001217180916</v>
+        <v>49.08758580062252</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>25.43001218772053</v>
+        <v>57.7729180654616</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>25.43001219248561</v>
+        <v>59.71770254401393</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>25.43001213973055</v>
+        <v>21.83757723190756</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>25.43001217969812</v>
+        <v>50.66390866042747</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>25.43001218976924</v>
+        <v>52.53898011259091</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>25.43001215524055</v>
+        <v>20.7577281476891</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>25.43001218910437</v>
+        <v>32.06825825280136</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>25.43001220130571</v>
+        <v>41.850830736585</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>25.4300121549372</v>
+        <v>9.095488725001399</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>25.43001219335187</v>
+        <v>40.75593304859228</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>25.43001220642716</v>
+        <v>44.33920102516849</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>25.43001216556307</v>
+        <v>4.735743164973609</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>25.43001220692304</v>
+        <v>56.55879096990894</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.43001221882078</v>
+        <v>67.33671523283824</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>25.43001221302803</v>
+        <v>70.06206643369619</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>25.430012228495</v>
+        <v>79.60154815358332</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>25.43001223242404</v>
+        <v>84.36953788665572</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>25.43001217834091</v>
+        <v>29.21000020528971</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>25.43001221868747</v>
+        <v>68.31849457233649</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>25.43001222916464</v>
+        <v>71.97030141631838</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>25.43001217827684</v>
+        <v>56.79609337503534</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>25.43001217445658</v>
+        <v>44.68539215378264</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.43001219017672</v>
+        <v>50.37392177512216</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>25.4300121949593</v>
+        <v>58.9261547294675</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>25.43001214228644</v>
+        <v>15.12164861462503</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>25.43001218231968</v>
+        <v>49.48504205573579</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>25.43001215758754</v>
+        <v>14.96935854627298</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>25.43001219145053</v>
+        <v>31.674495583186</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>25.43001220357386</v>
+        <v>42.01518333762269</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.4300121578822</v>
+        <v>8.74591601714614</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>25.43001219632075</v>
+        <v>39.39428077281171</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>25.43001220936879</v>
+        <v>47.99404529810938</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.43001216851574</v>
+        <v>7.219147475771731</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>25.43001220985523</v>
+        <v>58.90911678145022</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>25.4300122216809</v>
+        <v>73.70314662889727</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>25.43001221568248</v>
+        <v>71.3382148975481</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>25.43001223095716</v>
+        <v>77.84666835596961</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>25.43001223489131</v>
+        <v>87.85965366513473</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>25.43001218086513</v>
+        <v>15.04244284102118</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>25.43001222130391</v>
+        <v>65.27339411610079</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.43001223169659</v>
+        <v>76.06911430599693</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>25.43001216449371</v>
+        <v>53.01527756676842</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.43001216061662</v>
+        <v>26.12906448051706</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>25.43001217631717</v>
+        <v>34.21953648186945</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>25.43001218110167</v>
+        <v>46.03173295797741</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>25.43001212976789</v>
+        <v>10.07125776697513</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.43001216860155</v>
+        <v>46.35666083122153</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>25.43001217893082</v>
+        <v>51.77552048373654</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>25.43001214598188</v>
+        <v>10.35240827094054</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>25.43001217861283</v>
+        <v>30.18924020400665</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>25.4300121909364</v>
+        <v>45.23080223743905</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>25.43001214582114</v>
+        <v>9.420144984391737</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>25.43001218267851</v>
+        <v>35.69518129380511</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.43001219593514</v>
+        <v>50.44617998602455</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>25.43001215544366</v>
+        <v>2.393523859061457</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>25.43001219519092</v>
+        <v>49.41016116767817</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.43001220727406</v>
+        <v>73.46557615557573</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>25.43001220133182</v>
+        <v>55.97775992234456</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>25.43001221661347</v>
+        <v>69.77508786727519</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.43001222058987</v>
+        <v>88.52955519040067</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>25.43001216769427</v>
+        <v>9.379621940259437</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>25.43001220701631</v>
+        <v>55.41141046805323</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>25.43001221778612</v>
+        <v>73.74830812612682</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>25.43001206864407</v>
+        <v>9.048095427196603</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>25.43001209172129</v>
+        <v>9.700179054059522</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.43001210033104</v>
+        <v>21.49260710848442</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>25.43001206725014</v>
+        <v>5.315735866538244</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>25.43001209481486</v>
+        <v>19.17118542399928</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>25.4300121035694</v>
+        <v>22.61046586411283</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>25.43001207088046</v>
+        <v>7.945613897095928</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.43001209999908</v>
+        <v>27.39144310515757</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.43001210810147</v>
+        <v>30.05292626522382</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>25.43001211064194</v>
+        <v>12.53464296256416</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>25.43001212058168</v>
+        <v>21.3650200925262</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>25.43001212395781</v>
+        <v>19.32674264262791</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>25.43001208807047</v>
+        <v>16.25937855652783</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>25.43001211501872</v>
+        <v>10.02814356123325</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>25.43001212337881</v>
+        <v>30.60061362311437</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>25.43001209833348</v>
+        <v>16.07666719862844</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.43001212495324</v>
+        <v>26.10465437876152</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>25.43001213528929</v>
+        <v>29.43654853851926</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>25.4300120956138</v>
+        <v>5.402226004076891</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>25.43001212548875</v>
+        <v>17.26770384525456</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.43001213665757</v>
+        <v>18.89267585496559</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>25.43001210205664</v>
+        <v>4.961035518378164</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>25.43001213456683</v>
+        <v>30.06891002926798</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>25.43001207858043</v>
+        <v>12.94011198824053</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>25.43001210314327</v>
+        <v>14.20438633478167</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.43001211171329</v>
+        <v>19.96175445715333</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>25.43001207864032</v>
+        <v>4.26158942968593</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>25.4300121081284</v>
+        <v>25.76396348835584</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>25.43001211693847</v>
+        <v>26.09023115084085</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>25.43001208303771</v>
+        <v>7.159963987461278</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>25.43001211400294</v>
+        <v>33.17176853532843</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>25.43001212205731</v>
+        <v>32.45718379666137</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>25.4300121244682</v>
+        <v>30.00246337444819</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>25.43001213450493</v>
+        <v>35.31454263939999</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>25.4300121379827</v>
+        <v>34.61910535212527</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>25.4300121001316</v>
+        <v>20.50717711393956</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>25.4300121289008</v>
+        <v>26.49363699973672</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>25.43001213707967</v>
+        <v>35.4042721795328</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>25.43001211180739</v>
+        <v>21.71984605116402</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>25.43001214009578</v>
+        <v>31.44363466333744</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>25.43001215049184</v>
+        <v>30.93581442991626</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>25.43001211063165</v>
+        <v>6.833913628560548</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>25.43001214266392</v>
+        <v>34.67368942581339</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>25.43001215395415</v>
+        <v>33.48671714249299</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>25.43001211812339</v>
+        <v>5.926950955737336</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>25.43001215272633</v>
+        <v>49.83640598123657</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>25.4300120802407</v>
+        <v>5.552510216637533</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>25.43001210479347</v>
+        <v>10.54958954323094</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.43001211329272</v>
+        <v>18.93646388650808</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.43001208079783</v>
+        <v>2.592418468384313</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.43001211026688</v>
+        <v>23.83063989715157</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>25.43001211905924</v>
+        <v>25.44515454592327</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>25.43001208519699</v>
+        <v>7.288753233077866</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.43001211612358</v>
+        <v>33.79098738511361</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>25.43001212412549</v>
+        <v>35.85452525331365</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>25.43001212641817</v>
+        <v>34.73267377045111</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>25.43001213634503</v>
+        <v>36.47261365324076</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>25.43001213983894</v>
+        <v>40.8043718172716</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>25.43001210192551</v>
+        <v>10.37083735572675</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>25.43001213080278</v>
+        <v>18.90764139474368</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>25.43001213891575</v>
+        <v>29.7616877289402</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>25.43001211380021</v>
+        <v>16.2124179902234</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>25.43001214205727</v>
+        <v>30.35643435726005</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>25.43001215241638</v>
+        <v>30.0918679714476</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>25.43001211310555</v>
+        <v>6.339534856791428</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>25.43001214511623</v>
+        <v>31.88257111618193</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.43001215641828</v>
+        <v>33.87494272079579</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>25.4300121206144</v>
+        <v>8.184890226599673</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>25.43001215516907</v>
+        <v>48.91073758550587</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>25.43001207319197</v>
+        <v>1.986743990982884</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>25.43001209680204</v>
+        <v>5.997309642538799</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>25.43001210540659</v>
+        <v>17.30517975952656</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>25.43001207336816</v>
+        <v>2.578432630334444</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>25.43001210158702</v>
+        <v>22.59469769849505</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>25.43001211051932</v>
+        <v>27.75774996856033</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>25.43001207713947</v>
+        <v>1.396443764707744</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>25.43001210685786</v>
+        <v>29.41151867008658</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.43001211501644</v>
+        <v>34.52573793232756</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>25.43001211722969</v>
+        <v>28.4862998311148</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>25.43001212709504</v>
+        <v>33.34820669008282</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>25.43001213057024</v>
+        <v>36.2905509158573</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>25.4300120937114</v>
+        <v>5.582997791964925</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>25.43001212166995</v>
+        <v>14.68615879577686</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>25.43001213002607</v>
+        <v>32.91348103197426</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>25.43001210456068</v>
+        <v>12.70807918582399</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>25.43001213175693</v>
+        <v>28.68131140972562</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>25.43001214221544</v>
+        <v>30.07335524116177</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>25.4300121034582</v>
+        <v>5.689712349576947</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>25.43001213410856</v>
+        <v>30.42776350522506</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>25.43001214555486</v>
+        <v>31.17297768904332</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>25.43001211012308</v>
+        <v>3.631165078741883</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>25.43001214332613</v>
+        <v>42.41048013488015</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>25.43001214487686</v>
+        <v>30.08793251989632</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>25.43001214312607</v>
+        <v>24.10637022410797</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>25.4300121566098</v>
+        <v>41.09348771336865</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>25.4300121606433</v>
+        <v>41.24110643963876</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>25.43001211705672</v>
+        <v>14.90543871294804</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>25.43001214975498</v>
+        <v>23.91329501513691</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>25.43001215874455</v>
+        <v>29.48715152047708</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>25.43001213262047</v>
+        <v>16.31435499527278</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.4300121604892</v>
+        <v>24.65029633393713</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>25.43001217092826</v>
+        <v>38.90502400646719</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>25.43001213011983</v>
+        <v>4.993561569153709</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>25.43001216170246</v>
+        <v>16.17174795661705</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>25.43001217273228</v>
+        <v>21.65287791770295</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>25.43001213862739</v>
+        <v>4.254664323937188</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>25.43001217258546</v>
+        <v>30.35148157290383</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>25.43001218273912</v>
+        <v>47.38142630772666</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>25.43001217898859</v>
+        <v>26.223021429967</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>25.43001219212723</v>
+        <v>49.73880154060539</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>25.43001219549436</v>
+        <v>53.33549006413719</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>25.43001215056304</v>
+        <v>12.59966083897738</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>25.43001218381071</v>
+        <v>29.37118139760882</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>25.4300121930577</v>
+        <v>37.77673495152483</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>25.43001216309131</v>
+        <v>50.68912730455693</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>25.43001216073924</v>
+        <v>50.79873163438208</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>25.4300121742584</v>
+        <v>56.62939126872726</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>25.4300121783919</v>
+        <v>55.95531885121461</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>25.43001213286187</v>
+        <v>27.66742873024557</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>25.43001216754708</v>
+        <v>52.46325786422985</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>25.43001217639824</v>
+        <v>51.27589613130066</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>25.43001214782046</v>
+        <v>24.00888265760629</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>25.43001214689395</v>
+        <v>7.306433876284043</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>25.43001218075257</v>
+        <v>44.87000821789397</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>25.43001219183612</v>
+        <v>45.25597865361453</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>25.4300121564808</v>
+        <v>7.128989679285208</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>25.43001219260707</v>
+        <v>62.14366145524416</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>25.43001220270391</v>
+        <v>66.50847859030515</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>25.43001219834366</v>
+        <v>67.66394476625862</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>25.43001221148178</v>
+        <v>74.97807492714998</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>25.43001221489897</v>
+        <v>76.75122903652237</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>25.43001216807733</v>
+        <v>33.95239342624552</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>25.43001220329468</v>
+        <v>71.86070501479537</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>25.43001221230628</v>
+        <v>71.23181228288426</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>25.43001216550715</v>
+        <v>54.28308838536998</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>25.43001216292499</v>
+        <v>47.91185364507177</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>25.43001217627977</v>
+        <v>51.02010846698496</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>25.4300121804294</v>
+        <v>55.85253324837765</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>25.43001213497016</v>
+        <v>19.15971566654359</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>25.43001216970213</v>
+        <v>49.63257162564587</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>25.43001217850938</v>
+        <v>50.33207727264421</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>25.43001214975147</v>
+        <v>16.95179466500906</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>25.43001217933724</v>
+        <v>32.33778951403175</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>25.43001218969659</v>
+        <v>41.69280609016073</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>25.43001214935077</v>
+        <v>6.185499593524678</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>25.43001218321903</v>
+        <v>43.10913082533486</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>25.43001219427955</v>
+        <v>45.68312189269872</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>25.43001215892477</v>
+        <v>8.538206720933584</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>25.43001219501946</v>
+        <v>63.14200038686135</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>25.43001220505769</v>
+        <v>70.81708003296492</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>25.43001220053683</v>
+        <v>69.39370176609535</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>25.43001221350897</v>
+        <v>75.85362052607093</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>25.43001221693226</v>
+        <v>80.81120825418965</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>25.43001217015721</v>
+        <v>19.30062145612449</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>25.43001220544988</v>
+        <v>70.84239905943737</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>25.43001221438568</v>
+        <v>74.59341461159819</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>25.43001215380045</v>
+        <v>49.15587031546636</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>25.43001215119924</v>
+        <v>32.74851959721551</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>25.43001216454006</v>
+        <v>38.34183351005834</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>25.43001216867553</v>
+        <v>42.81380727659742</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>25.43001212435967</v>
+        <v>14.17037433259621</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>25.43001215807011</v>
+        <v>45.11051863552875</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>25.43001216712916</v>
+        <v>46.40509384215811</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>25.43001213988674</v>
+        <v>13.44547543230949</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>25.4300121684183</v>
+        <v>32.87318923104499</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>25.43001217892933</v>
+        <v>44.86451573928878</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>25.43001213912402</v>
+        <v>7.241337093591437</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>25.43001217161027</v>
+        <v>42.07095797858402</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>25.43001218284714</v>
+        <v>47.46692701381123</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>25.43001214784368</v>
+        <v>5.157773120478549</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>25.43001218257819</v>
+        <v>58.79411401239987</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>25.43001219281787</v>
+        <v>71.14332571489281</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>25.43001218835898</v>
+        <v>62.81307050197942</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>25.43001220133392</v>
+        <v>75.21463678860299</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>25.43001220478495</v>
+        <v>82.77445285034905</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>25.4300121589815</v>
+        <v>15.26456645464766</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>25.43001219333019</v>
+        <v>67.57233840740683</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>25.4300122025745</v>
+        <v>75.68355581476347</v>
       </c>
     </row>
   </sheetData>
